--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459526.537410183</v>
+        <v>2458724.877957467</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>830012.3529327989</v>
+        <v>830012.3529327993</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>210.6543024793039</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>186.9919489137622</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>57.35516313269014</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>157.6032867115065</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.45866127410859</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>131.6584025181013</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.15592375897349</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>123.2415220294833</v>
+        <v>54.14553682299189</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.8190205094131</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>364.35807061694</v>
       </c>
       <c r="D11" t="n">
-        <v>301.3418763984048</v>
+        <v>353.7682204666154</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.0155489181943</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>338.1584539324556</v>
       </c>
       <c r="G11" t="n">
         <v>412.0166462392904</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.0699305321817</v>
+        <v>154.0699305321816</v>
       </c>
       <c r="T11" t="n">
         <v>211.8007934519845</v>
@@ -1433,10 +1433,10 @@
         <v>348.3261475633455</v>
       </c>
       <c r="X11" t="n">
-        <v>368.8162795244015</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>385.3231175019861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>178.9171590278698</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>145.5191414925017</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>122.5481916624345</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>204.5649072135215</v>
       </c>
       <c r="T13" t="n">
-        <v>168.139761618041</v>
+        <v>222.485995846144</v>
       </c>
       <c r="U13" t="n">
-        <v>285.3461898310012</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>251.2228221697605</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>285.6081771825235</v>
+        <v>116.2815555588549</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>300.764803038795</v>
       </c>
       <c r="F14" t="n">
-        <v>325.7104787082446</v>
+        <v>325.7104787082457</v>
       </c>
       <c r="G14" t="n">
         <v>331.7659003598911</v>
@@ -1625,7 +1625,7 @@
         <v>234.0244649476504</v>
       </c>
       <c r="I14" t="n">
-        <v>37.89193116712661</v>
+        <v>37.89193116712659</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>73.8191846527838</v>
+        <v>73.81918465278237</v>
       </c>
       <c r="T14" t="n">
         <v>131.5500475725852</v>
       </c>
       <c r="U14" t="n">
-        <v>169.9903842646276</v>
+        <v>169.9903842646275</v>
       </c>
       <c r="V14" t="n">
         <v>246.5866914366681</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.66641314847053</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.08125406516106</v>
+        <v>86.08125406516105</v>
       </c>
       <c r="D16" t="n">
-        <v>67.44990598474558</v>
+        <v>67.44990598474557</v>
       </c>
       <c r="E16" t="n">
-        <v>65.2683956131024</v>
+        <v>65.26839561310238</v>
       </c>
       <c r="F16" t="n">
-        <v>64.25548098946447</v>
+        <v>64.25548098946446</v>
       </c>
       <c r="G16" t="n">
-        <v>85.76174218225221</v>
+        <v>27.45127480853355</v>
       </c>
       <c r="H16" t="n">
-        <v>5.226523027699113</v>
+        <v>71.60461093215912</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>42.29744578303524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.30134683469412</v>
       </c>
       <c r="S16" t="n">
-        <v>124.3141613341223</v>
+        <v>124.3141613341222</v>
       </c>
       <c r="T16" t="n">
-        <v>142.2352499667448</v>
+        <v>142.2352499667447</v>
       </c>
       <c r="U16" t="n">
         <v>205.0954439516019</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.5682746300138</v>
+        <v>301.5682746300157</v>
       </c>
       <c r="C17" t="n">
         <v>284.1073247375408</v>
@@ -1862,7 +1862,7 @@
         <v>234.0244649476504</v>
       </c>
       <c r="I17" t="n">
-        <v>37.8919311671279</v>
+        <v>37.89193116712659</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.81918465278238</v>
+        <v>73.81918465278237</v>
       </c>
       <c r="T17" t="n">
         <v>131.5500475725852</v>
       </c>
       <c r="U17" t="n">
-        <v>169.9903842646276</v>
+        <v>169.9903842646275</v>
       </c>
       <c r="V17" t="n">
         <v>246.5866914366681</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.45127480853344</v>
+        <v>98.66641314847051</v>
       </c>
       <c r="C19" t="n">
-        <v>86.08125406516106</v>
+        <v>36.67021493910951</v>
       </c>
       <c r="D19" t="n">
-        <v>67.44990598474558</v>
+        <v>67.44990598474557</v>
       </c>
       <c r="E19" t="n">
-        <v>65.2683956131024</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>64.25548098946447</v>
+        <v>64.25548098946446</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>85.76174218225219</v>
       </c>
       <c r="H19" t="n">
-        <v>71.60461093215913</v>
+        <v>71.60461093215912</v>
       </c>
       <c r="I19" t="n">
-        <v>42.29744578303525</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.30134683469413</v>
+        <v>48.30134683469412</v>
       </c>
       <c r="S19" t="n">
-        <v>124.3141613341223</v>
+        <v>124.3141613341222</v>
       </c>
       <c r="T19" t="n">
-        <v>142.2352499667448</v>
+        <v>142.2352499667447</v>
       </c>
       <c r="U19" t="n">
         <v>205.0954439516019</v>
@@ -2093,13 +2093,13 @@
         <v>325.7104787082446</v>
       </c>
       <c r="G20" t="n">
-        <v>331.7659003598911</v>
+        <v>331.7659003598923</v>
       </c>
       <c r="H20" t="n">
-        <v>234.0244649476508</v>
+        <v>234.0244649476504</v>
       </c>
       <c r="I20" t="n">
-        <v>37.89193116712661</v>
+        <v>37.89193116712659</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.81918465278238</v>
+        <v>73.81918465278237</v>
       </c>
       <c r="T20" t="n">
         <v>131.5500475725852</v>
       </c>
       <c r="U20" t="n">
-        <v>169.990384264627</v>
+        <v>169.9903842646275</v>
       </c>
       <c r="V20" t="n">
         <v>246.5866914366681</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.66641314847053</v>
+        <v>98.66641314847051</v>
       </c>
       <c r="C22" t="n">
-        <v>86.08125406516106</v>
+        <v>86.08125406516105</v>
       </c>
       <c r="D22" t="n">
-        <v>67.44990598474558</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>65.2683956131024</v>
+        <v>65.26839561310238</v>
       </c>
       <c r="F22" t="n">
-        <v>64.25548098946447</v>
+        <v>64.25548098946446</v>
       </c>
       <c r="G22" t="n">
-        <v>85.76174218225221</v>
+        <v>85.76174218225219</v>
       </c>
       <c r="H22" t="n">
-        <v>71.60461093215913</v>
+        <v>71.60461093215912</v>
       </c>
       <c r="I22" t="n">
-        <v>42.29744578303525</v>
+        <v>42.29744578303524</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>48.30134683469412</v>
       </c>
       <c r="S22" t="n">
-        <v>15.63862764662706</v>
+        <v>124.3141613341222</v>
       </c>
       <c r="T22" t="n">
-        <v>142.2352499667448</v>
+        <v>142.2352499667447</v>
       </c>
       <c r="U22" t="n">
         <v>205.0954439516019</v>
       </c>
       <c r="V22" t="n">
-        <v>170.9720762903612</v>
+        <v>81.44510175291765</v>
       </c>
       <c r="W22" t="n">
         <v>205.3574313031242</v>
@@ -2336,7 +2336,7 @@
         <v>234.0244649476504</v>
       </c>
       <c r="I23" t="n">
-        <v>37.89193116712661</v>
+        <v>37.89193116712659</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.81918465278291</v>
+        <v>73.81918465278237</v>
       </c>
       <c r="T23" t="n">
-        <v>131.5500475725852</v>
+        <v>131.5500475725851</v>
       </c>
       <c r="U23" t="n">
-        <v>169.9903842646276</v>
+        <v>169.9903842646275</v>
       </c>
       <c r="V23" t="n">
         <v>246.5866914366681</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.66641314847053</v>
+        <v>98.66641314847051</v>
       </c>
       <c r="C25" t="n">
-        <v>86.08125406516106</v>
+        <v>86.08125406516105</v>
       </c>
       <c r="D25" t="n">
-        <v>67.44990598474558</v>
+        <v>67.44990598474557</v>
       </c>
       <c r="E25" t="n">
-        <v>65.2683956131024</v>
+        <v>65.26839561310238</v>
       </c>
       <c r="F25" t="n">
-        <v>64.25548098946447</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.76174218225219</v>
       </c>
       <c r="H25" t="n">
-        <v>71.60461093215913</v>
+        <v>71.60461093215912</v>
       </c>
       <c r="I25" t="n">
-        <v>42.29744578303525</v>
+        <v>42.29744578303524</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>48.30134683469413</v>
+        <v>48.30134683469412</v>
       </c>
       <c r="S25" t="n">
-        <v>124.3141613341223</v>
+        <v>124.3141613341222</v>
       </c>
       <c r="T25" t="n">
-        <v>142.2352499667448</v>
+        <v>142.2352499667447</v>
       </c>
       <c r="U25" t="n">
-        <v>133.8803056116648</v>
+        <v>205.0954439516019</v>
       </c>
       <c r="V25" t="n">
         <v>170.9720762903612</v>
       </c>
       <c r="W25" t="n">
-        <v>205.3574313031242</v>
+        <v>112.6360317703995</v>
       </c>
       <c r="X25" t="n">
         <v>144.5440883555704</v>
@@ -2564,16 +2564,16 @@
         <v>301.6796241928625</v>
       </c>
       <c r="F26" t="n">
-        <v>326.6252998623121</v>
+        <v>326.6252998623122</v>
       </c>
       <c r="G26" t="n">
-        <v>332.6807215139586</v>
+        <v>332.6807215139587</v>
       </c>
       <c r="H26" t="n">
-        <v>234.9392861017179</v>
+        <v>234.939286101718</v>
       </c>
       <c r="I26" t="n">
-        <v>25.08443501018215</v>
+        <v>38.80675232119412</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.73400580684986</v>
+        <v>74.73400580684989</v>
       </c>
       <c r="T26" t="n">
-        <v>132.4648687266527</v>
+        <v>132.4648687266528</v>
       </c>
       <c r="U26" t="n">
-        <v>170.905205418695</v>
+        <v>170.9052054186951</v>
       </c>
       <c r="V26" t="n">
         <v>247.5015125907356</v>
       </c>
       <c r="W26" t="n">
-        <v>268.9902228380137</v>
+        <v>268.9902228380138</v>
       </c>
       <c r="X26" t="n">
-        <v>289.4803547990697</v>
+        <v>275.7580374880579</v>
       </c>
       <c r="Y26" t="n">
         <v>305.9871927766543</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.58123430253801</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>86.99607521922857</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.36472713881309</v>
       </c>
       <c r="E28" t="n">
-        <v>66.18321676716988</v>
+        <v>66.18321676716991</v>
       </c>
       <c r="F28" t="n">
-        <v>65.17030214353196</v>
+        <v>29.17685469109059</v>
       </c>
       <c r="G28" t="n">
-        <v>86.67656333631969</v>
+        <v>86.67656333631972</v>
       </c>
       <c r="H28" t="n">
-        <v>72.51943208622662</v>
+        <v>72.51943208622664</v>
       </c>
       <c r="I28" t="n">
-        <v>43.21226693710273</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>25.79002165472173</v>
+        <v>49.21616798876164</v>
       </c>
       <c r="S28" t="n">
-        <v>125.2289824881897</v>
+        <v>125.2289824881898</v>
       </c>
       <c r="T28" t="n">
-        <v>143.1500711208122</v>
+        <v>143.1500711208123</v>
       </c>
       <c r="U28" t="n">
         <v>206.0102651056694</v>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301.5682746300139</v>
+        <v>301.5682746300138</v>
       </c>
       <c r="C29" t="n">
         <v>284.1073247375408</v>
       </c>
       <c r="D29" t="n">
-        <v>273.5174745872163</v>
+        <v>273.5174745872162</v>
       </c>
       <c r="E29" t="n">
-        <v>300.7648030387951</v>
+        <v>300.764803038795</v>
       </c>
       <c r="F29" t="n">
-        <v>325.7104787082448</v>
+        <v>325.7104787082447</v>
       </c>
       <c r="G29" t="n">
         <v>331.7659003598912</v>
@@ -2810,7 +2810,7 @@
         <v>234.0244649476505</v>
       </c>
       <c r="I29" t="n">
-        <v>37.89193116712661</v>
+        <v>37.89193116712664</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.81918465278244</v>
+        <v>73.81918465278245</v>
       </c>
       <c r="T29" t="n">
         <v>131.5500475725853</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.66641314847058</v>
+        <v>98.66641314847057</v>
       </c>
       <c r="C31" t="n">
-        <v>86.08125406516112</v>
+        <v>86.0812540651611</v>
       </c>
       <c r="D31" t="n">
-        <v>67.44990598474564</v>
+        <v>67.44990598474563</v>
       </c>
       <c r="E31" t="n">
-        <v>65.26839561310246</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>64.25548098946453</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.76174218225226</v>
+        <v>85.76174218225225</v>
       </c>
       <c r="H31" t="n">
-        <v>71.60461093215919</v>
+        <v>71.60461093215918</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>42.29744578303529</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.30134683469419</v>
+        <v>48.30134683469417</v>
       </c>
       <c r="S31" t="n">
-        <v>124.3141613341223</v>
+        <v>96.86115741449892</v>
       </c>
       <c r="T31" t="n">
         <v>142.2352499667448</v>
@@ -3010,13 +3010,13 @@
         <v>170.9720762903613</v>
       </c>
       <c r="W31" t="n">
-        <v>90.67799656396876</v>
+        <v>205.3574313031243</v>
       </c>
       <c r="X31" t="n">
         <v>144.5440883555704</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.4190863186281</v>
+        <v>137.419086318628</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>273.5174745872163</v>
       </c>
       <c r="E32" t="n">
-        <v>300.7648030387952</v>
+        <v>300.7648030387951</v>
       </c>
       <c r="F32" t="n">
         <v>325.7104787082448</v>
       </c>
       <c r="G32" t="n">
-        <v>331.7659003598906</v>
+        <v>331.765900359891</v>
       </c>
       <c r="H32" t="n">
-        <v>234.0244649476506</v>
+        <v>234.0244649476505</v>
       </c>
       <c r="I32" t="n">
-        <v>37.89193116712676</v>
+        <v>37.8919311671267</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>73.81918465278245</v>
       </c>
       <c r="T32" t="n">
-        <v>131.5500475725854</v>
+        <v>131.5500475725853</v>
       </c>
       <c r="U32" t="n">
-        <v>169.9903842646266</v>
+        <v>169.9903842646275</v>
       </c>
       <c r="V32" t="n">
-        <v>246.5866914366683</v>
+        <v>246.5866914366682</v>
       </c>
       <c r="W32" t="n">
-        <v>268.0754016839464</v>
+        <v>268.0754016839463</v>
       </c>
       <c r="X32" t="n">
-        <v>288.5655336450024</v>
+        <v>288.5655336450023</v>
       </c>
       <c r="Y32" t="n">
-        <v>305.072371622587</v>
+        <v>305.0723716225869</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.66641314847067</v>
+        <v>98.66641314847061</v>
       </c>
       <c r="C34" t="n">
-        <v>86.0812540651612</v>
+        <v>86.08125406516115</v>
       </c>
       <c r="D34" t="n">
-        <v>67.44990598474573</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>65.26839561310254</v>
+        <v>65.26839561310248</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>64.25548098946456</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>85.76174218225229</v>
       </c>
       <c r="H34" t="n">
-        <v>64.64495358168367</v>
+        <v>71.60461093215922</v>
       </c>
       <c r="I34" t="n">
-        <v>42.29744578303539</v>
+        <v>42.29744578303534</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.30134683469427</v>
+        <v>48.30134683469421</v>
       </c>
       <c r="S34" t="n">
-        <v>124.3141613341224</v>
+        <v>124.3141613341223</v>
       </c>
       <c r="T34" t="n">
-        <v>142.2352499667449</v>
+        <v>52.70827542929941</v>
       </c>
       <c r="U34" t="n">
-        <v>205.0954439516021</v>
+        <v>205.095443951602</v>
       </c>
       <c r="V34" t="n">
-        <v>170.9720762903614</v>
+        <v>170.9720762903613</v>
       </c>
       <c r="W34" t="n">
-        <v>205.3574313031244</v>
+        <v>205.3574313031243</v>
       </c>
       <c r="X34" t="n">
         <v>144.5440883555705</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.4190863186282</v>
+        <v>137.4190863186281</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.5682746300138</v>
+        <v>301.5682746300139</v>
       </c>
       <c r="C35" t="n">
-        <v>284.1073247375408</v>
+        <v>284.1073247375409</v>
       </c>
       <c r="D35" t="n">
-        <v>273.5174745872162</v>
+        <v>273.5174745872163</v>
       </c>
       <c r="E35" t="n">
-        <v>300.764803038795</v>
+        <v>300.7648030387951</v>
       </c>
       <c r="F35" t="n">
-        <v>325.7104787082447</v>
+        <v>325.7104787082448</v>
       </c>
       <c r="G35" t="n">
         <v>331.7659003598912</v>
@@ -3284,7 +3284,7 @@
         <v>234.0244649476505</v>
       </c>
       <c r="I35" t="n">
-        <v>37.89193116712663</v>
+        <v>37.89193116712655</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.8191846527838</v>
+        <v>73.81918465278247</v>
       </c>
       <c r="T35" t="n">
         <v>131.5500475725853</v>
@@ -3332,7 +3332,7 @@
         <v>288.5655336450023</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.0723716225868</v>
+        <v>305.0723716225869</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.66641314847055</v>
+        <v>98.66641314847061</v>
       </c>
       <c r="C37" t="n">
-        <v>86.08125406516109</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>67.44990598474561</v>
+        <v>67.44990598474567</v>
       </c>
       <c r="E37" t="n">
-        <v>65.26839561310243</v>
+        <v>65.26839561310248</v>
       </c>
       <c r="F37" t="n">
-        <v>64.2554809894645</v>
+        <v>64.25548098946456</v>
       </c>
       <c r="G37" t="n">
-        <v>85.76174218225223</v>
+        <v>85.76174218225229</v>
       </c>
       <c r="H37" t="n">
-        <v>71.60461093215916</v>
+        <v>71.60461093215922</v>
       </c>
       <c r="I37" t="n">
-        <v>42.29744578303527</v>
+        <v>42.29744578303533</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>48.30134683469421</v>
       </c>
       <c r="S37" t="n">
-        <v>15.63862764662639</v>
+        <v>124.3141613341223</v>
       </c>
       <c r="T37" t="n">
         <v>142.2352499667448</v>
@@ -3487,10 +3487,10 @@
         <v>205.3574313031243</v>
       </c>
       <c r="X37" t="n">
-        <v>144.5440883555704</v>
+        <v>73.64846189854057</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.419086318628</v>
+        <v>137.4190863186281</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.5682746300138</v>
+        <v>301.5682746300139</v>
       </c>
       <c r="C38" t="n">
-        <v>284.1073247375408</v>
+        <v>284.1073247375409</v>
       </c>
       <c r="D38" t="n">
-        <v>273.5174745872162</v>
+        <v>273.5174745872163</v>
       </c>
       <c r="E38" t="n">
-        <v>300.764803038795</v>
+        <v>300.7648030387951</v>
       </c>
       <c r="F38" t="n">
-        <v>325.7104787082447</v>
+        <v>325.7104787082448</v>
       </c>
       <c r="G38" t="n">
         <v>331.7659003598912</v>
@@ -3521,7 +3521,7 @@
         <v>234.0244649476505</v>
       </c>
       <c r="I38" t="n">
-        <v>37.89193116712663</v>
+        <v>37.89193116712669</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.81918465278241</v>
+        <v>73.81918465278247</v>
       </c>
       <c r="T38" t="n">
         <v>131.5500475725853</v>
       </c>
       <c r="U38" t="n">
-        <v>169.9903842646289</v>
+        <v>169.9903842646276</v>
       </c>
       <c r="V38" t="n">
         <v>246.5866914366682</v>
@@ -3569,7 +3569,7 @@
         <v>288.5655336450023</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.0723716225868</v>
+        <v>305.072371622587</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.66641314847055</v>
+        <v>98.66641314847061</v>
       </c>
       <c r="C40" t="n">
-        <v>86.08125406516109</v>
+        <v>86.08125406516115</v>
       </c>
       <c r="D40" t="n">
-        <v>67.44990598474561</v>
+        <v>67.44990598474567</v>
       </c>
       <c r="E40" t="n">
-        <v>65.26839561310243</v>
+        <v>65.26839561310248</v>
       </c>
       <c r="F40" t="n">
-        <v>64.2554809894645</v>
+        <v>64.25548098946456</v>
       </c>
       <c r="G40" t="n">
-        <v>85.76174218225223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>71.60461093215916</v>
+        <v>42.68691837525507</v>
       </c>
       <c r="I40" t="n">
-        <v>42.29744578303527</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>48.30134683469415</v>
+        <v>48.30134683469421</v>
       </c>
       <c r="S40" t="n">
         <v>124.3141613341223</v>
@@ -3721,13 +3721,13 @@
         <v>170.9720762903613</v>
       </c>
       <c r="W40" t="n">
-        <v>48.38055078093416</v>
+        <v>205.3574313031243</v>
       </c>
       <c r="X40" t="n">
-        <v>144.5440883555704</v>
+        <v>144.5440883555705</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.419086318628</v>
+        <v>137.4190863186281</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.5682746300138</v>
+        <v>301.5682746300137</v>
       </c>
       <c r="C41" t="n">
-        <v>284.1073247375408</v>
+        <v>284.1073247375409</v>
       </c>
       <c r="D41" t="n">
-        <v>273.5174745872162</v>
+        <v>273.5174745872163</v>
       </c>
       <c r="E41" t="n">
-        <v>300.764803038795</v>
+        <v>300.7648030387951</v>
       </c>
       <c r="F41" t="n">
-        <v>325.7104787082447</v>
+        <v>325.7104787082448</v>
       </c>
       <c r="G41" t="n">
         <v>331.7659003598912</v>
       </c>
       <c r="H41" t="n">
-        <v>234.0244649476518</v>
+        <v>234.0244649476505</v>
       </c>
       <c r="I41" t="n">
-        <v>37.89193116712663</v>
+        <v>37.89193116712669</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.81918465278241</v>
+        <v>73.81918465278247</v>
       </c>
       <c r="T41" t="n">
         <v>131.5500475725853</v>
@@ -3806,7 +3806,7 @@
         <v>288.5655336450023</v>
       </c>
       <c r="Y41" t="n">
-        <v>305.0723716225868</v>
+        <v>305.0723716225869</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.66641314847055</v>
+        <v>98.66641314847061</v>
       </c>
       <c r="C43" t="n">
-        <v>86.08125406516109</v>
+        <v>86.08125406516115</v>
       </c>
       <c r="D43" t="n">
-        <v>67.44990598474561</v>
+        <v>61.50316325790946</v>
       </c>
       <c r="E43" t="n">
-        <v>65.26839561310243</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>64.2554809894645</v>
+        <v>64.25548098946456</v>
       </c>
       <c r="G43" t="n">
-        <v>85.76174218225223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>71.60461093215922</v>
       </c>
       <c r="I43" t="n">
-        <v>42.29744578303527</v>
+        <v>42.29744578303533</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.30134683469415</v>
+        <v>48.30134683469421</v>
       </c>
       <c r="S43" t="n">
-        <v>38.94189174409133</v>
+        <v>124.3141613341223</v>
       </c>
       <c r="T43" t="n">
         <v>142.2352499667448</v>
@@ -3961,10 +3961,10 @@
         <v>205.3574313031243</v>
       </c>
       <c r="X43" t="n">
-        <v>144.5440883555704</v>
+        <v>144.5440883555705</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.419086318628</v>
+        <v>137.4190863186281</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>298.634669453354</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9314673933579</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>315.1900319811172</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.9847516862492</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>42.43878579028766</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.7701779656259</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.463012816502</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.15770102497042</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.479728367589</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>6.322718422063458</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>17.62406633491537</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.6192102101089</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6192102101089</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4364,7 +4364,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
         <v>710.516763498309</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.6686806061783</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>77.21565132505125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>77.21565132505125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>77.21565132505125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>77.21565132505125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>77.21565132505125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>804.8619164081044</v>
       </c>
       <c r="V3" t="n">
-        <v>627.7355178317791</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W3" t="n">
-        <v>627.7355178317791</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X3" t="n">
-        <v>419.8840176262463</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y3" t="n">
-        <v>419.8840176262463</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="E5" t="n">
-        <v>710.516763498309</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F5" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>269.6754205035162</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>657.6515255894856</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>657.6515255894856</v>
       </c>
       <c r="W6" t="n">
-        <v>227.0414418751666</v>
+        <v>657.6515255894856</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>449.8000253839527</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>449.8000253839527</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
         <v>41.68395448076474</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.6017161145382</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="C9" t="n">
-        <v>380.6017161145382</v>
+        <v>278.3965019356282</v>
       </c>
       <c r="D9" t="n">
-        <v>380.6017161145382</v>
+        <v>278.3965019356282</v>
       </c>
       <c r="E9" t="n">
-        <v>380.6017161145382</v>
+        <v>278.3965019356282</v>
       </c>
       <c r="F9" t="n">
-        <v>234.0671581414232</v>
+        <v>278.3965019356282</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X9" t="n">
-        <v>380.6017161145382</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y9" t="n">
-        <v>380.6017161145382</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4996,16 +4996,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1231.005037767614</v>
+        <v>2378.437782753271</v>
       </c>
       <c r="C11" t="n">
-        <v>1231.005037767614</v>
+        <v>2010.399327584645</v>
       </c>
       <c r="D11" t="n">
-        <v>926.6193040318515</v>
+        <v>1653.05769074968</v>
       </c>
       <c r="E11" t="n">
-        <v>926.6193040318515</v>
+        <v>1268.193499923221</v>
       </c>
       <c r="F11" t="n">
         <v>926.6193040318515</v>
@@ -5039,10 +5039,10 @@
         <v>73.65512816026958</v>
       </c>
       <c r="J11" t="n">
-        <v>261.0713333224026</v>
+        <v>261.0713333224024</v>
       </c>
       <c r="K11" t="n">
-        <v>662.7044464688015</v>
+        <v>662.7044464688013</v>
       </c>
       <c r="L11" t="n">
         <v>1213.24246569838</v>
@@ -5081,10 +5081,10 @@
         <v>2378.437782753271</v>
       </c>
       <c r="X11" t="n">
-        <v>2005.896086263977</v>
+        <v>2378.437782753271</v>
       </c>
       <c r="Y11" t="n">
-        <v>1616.68081605995</v>
+        <v>2378.437782753271</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>73.65512816026958</v>
       </c>
       <c r="J12" t="n">
-        <v>73.65512816026958</v>
+        <v>191.5855563422923</v>
       </c>
       <c r="K12" t="n">
-        <v>140.0172720779418</v>
+        <v>519.7682849024173</v>
       </c>
       <c r="L12" t="n">
-        <v>355.3845634113301</v>
+        <v>1022.454860002528</v>
       </c>
       <c r="M12" t="n">
-        <v>993.9753079994872</v>
+        <v>1199.997591478185</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.174662798285</v>
+        <v>1457.198147939795</v>
       </c>
       <c r="O12" t="n">
-        <v>2212.775264750449</v>
+        <v>2004.798749891959</v>
       </c>
       <c r="P12" t="n">
-        <v>2635.269957461516</v>
+        <v>2427.293442603026</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.022186522297</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.65512816026958</v>
+        <v>344.4302121551546</v>
       </c>
       <c r="C13" t="n">
-        <v>73.65512816026958</v>
+        <v>344.4302121551546</v>
       </c>
       <c r="D13" t="n">
-        <v>73.65512816026958</v>
+        <v>344.4302121551546</v>
       </c>
       <c r="E13" t="n">
-        <v>73.65512816026958</v>
+        <v>197.4411803445469</v>
       </c>
       <c r="F13" t="n">
-        <v>73.65512816026958</v>
+        <v>197.4411803445469</v>
       </c>
       <c r="G13" t="n">
-        <v>73.65512816026958</v>
+        <v>197.4411803445469</v>
       </c>
       <c r="H13" t="n">
-        <v>73.65512816026958</v>
+        <v>197.4411803445469</v>
       </c>
       <c r="I13" t="n">
         <v>73.65512816026958</v>
@@ -5212,7 +5212,7 @@
         <v>770.535344381357</v>
       </c>
       <c r="O13" t="n">
-        <v>944.6217843726458</v>
+        <v>944.6217843726459</v>
       </c>
       <c r="P13" t="n">
         <v>1070.192839198507</v>
@@ -5224,25 +5224,25 @@
         <v>1073.975280484842</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.975280484842</v>
+        <v>867.3440610772443</v>
       </c>
       <c r="T13" t="n">
-        <v>904.1371374363152</v>
+        <v>642.610731939725</v>
       </c>
       <c r="U13" t="n">
-        <v>615.9086628595463</v>
+        <v>642.610731939725</v>
       </c>
       <c r="V13" t="n">
-        <v>362.1482364254448</v>
+        <v>642.610731939725</v>
       </c>
       <c r="W13" t="n">
-        <v>73.65512816026958</v>
+        <v>525.154615213609</v>
       </c>
       <c r="X13" t="n">
-        <v>73.65512816026958</v>
+        <v>525.154615213609</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.65512816026958</v>
+        <v>525.154615213609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1879.495913560739</v>
+        <v>1879.49591356074</v>
       </c>
       <c r="C14" t="n">
-        <v>1592.518817866253</v>
+        <v>1592.518817866254</v>
       </c>
       <c r="D14" t="n">
-        <v>1316.238540505429</v>
+        <v>1316.23854050543</v>
       </c>
       <c r="E14" t="n">
-        <v>1012.435709153111</v>
+        <v>1012.435709153112</v>
       </c>
       <c r="F14" t="n">
         <v>683.4352256094294</v>
       </c>
       <c r="G14" t="n">
-        <v>348.3181545388323</v>
+        <v>348.3181545388322</v>
       </c>
       <c r="H14" t="n">
         <v>111.9298061068621</v>
       </c>
       <c r="I14" t="n">
-        <v>73.65512816026961</v>
+        <v>73.65512816026958</v>
       </c>
       <c r="J14" t="n">
-        <v>261.0713333224031</v>
+        <v>261.0713333224026</v>
       </c>
       <c r="K14" t="n">
-        <v>662.704446468802</v>
+        <v>662.7044464688015</v>
       </c>
       <c r="L14" t="n">
         <v>1213.24246569838</v>
@@ -5288,28 +5288,28 @@
         <v>1842.428634884076</v>
       </c>
       <c r="N14" t="n">
-        <v>2467.163696535272</v>
+        <v>2467.163696535271</v>
       </c>
       <c r="O14" t="n">
-        <v>3011.89566202119</v>
+        <v>3011.895662021189</v>
       </c>
       <c r="P14" t="n">
-        <v>3439.137408836451</v>
+        <v>3439.13740883645</v>
       </c>
       <c r="Q14" t="n">
-        <v>3682.75640801348</v>
+        <v>3682.756408013479</v>
       </c>
       <c r="R14" t="n">
-        <v>3682.75640801348</v>
+        <v>3682.756408013479</v>
       </c>
       <c r="S14" t="n">
-        <v>3608.19157503087</v>
+        <v>3608.191575030871</v>
       </c>
       <c r="T14" t="n">
-        <v>3475.312739098966</v>
+        <v>3475.312739098967</v>
       </c>
       <c r="U14" t="n">
-        <v>3303.605280245807</v>
+        <v>3303.605280245808</v>
       </c>
       <c r="V14" t="n">
         <v>3054.527814148163</v>
@@ -5321,7 +5321,7 @@
         <v>2492.264243108821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2184.110332378935</v>
+        <v>2184.110332378936</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>358.2722388779805</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8229703974799</v>
+        <v>220.8229703974798</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8309768007531</v>
+        <v>119.830976800753</v>
       </c>
       <c r="I15" t="n">
-        <v>73.65512816026961</v>
+        <v>73.65512816026958</v>
       </c>
       <c r="J15" t="n">
-        <v>73.65512816026961</v>
+        <v>191.5855563422923</v>
       </c>
       <c r="K15" t="n">
-        <v>140.0172720779419</v>
+        <v>519.7682849024173</v>
       </c>
       <c r="L15" t="n">
-        <v>642.7038471780521</v>
+        <v>1022.454860002528</v>
       </c>
       <c r="M15" t="n">
-        <v>1281.294591766209</v>
+        <v>1260.547743741115</v>
       </c>
       <c r="N15" t="n">
-        <v>1952.493946565007</v>
+        <v>1457.198147939795</v>
       </c>
       <c r="O15" t="n">
-        <v>2500.094548517171</v>
+        <v>2004.798749891959</v>
       </c>
       <c r="P15" t="n">
-        <v>2635.269957461516</v>
+        <v>2427.293442603026</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.022186522297</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>451.476645193022</v>
+        <v>502.350449550372</v>
       </c>
       <c r="C16" t="n">
-        <v>364.5258835110411</v>
+        <v>415.3996878683911</v>
       </c>
       <c r="D16" t="n">
-        <v>296.3946653446314</v>
+        <v>347.2684697019815</v>
       </c>
       <c r="E16" t="n">
-        <v>230.4669930081644</v>
+        <v>281.3407973655144</v>
       </c>
       <c r="F16" t="n">
-        <v>165.56246675618</v>
+        <v>216.4362711135301</v>
       </c>
       <c r="G16" t="n">
-        <v>78.93444434986468</v>
+        <v>188.7077107008699</v>
       </c>
       <c r="H16" t="n">
-        <v>73.65512816026961</v>
+        <v>116.3798208704062</v>
       </c>
       <c r="I16" t="n">
-        <v>73.65512816026961</v>
+        <v>73.65512816026958</v>
       </c>
       <c r="J16" t="n">
         <v>136.032915508681</v>
@@ -5443,7 +5443,7 @@
         <v>580.9087597822605</v>
       </c>
       <c r="M16" t="n">
-        <v>865.5184877789727</v>
+        <v>865.5184877789728</v>
       </c>
       <c r="N16" t="n">
         <v>1150.70608541219</v>
@@ -5458,28 +5458,28 @@
         <v>1692.49073677749</v>
       </c>
       <c r="R16" t="n">
-        <v>1692.49073677749</v>
+        <v>1643.701497550526</v>
       </c>
       <c r="S16" t="n">
-        <v>1566.920876844033</v>
+        <v>1518.13163761707</v>
       </c>
       <c r="T16" t="n">
-        <v>1423.248907180655</v>
+        <v>1374.459667953691</v>
       </c>
       <c r="U16" t="n">
-        <v>1216.081792078026</v>
+        <v>1167.292552851063</v>
       </c>
       <c r="V16" t="n">
-        <v>1043.382725118066</v>
+        <v>994.5934858911019</v>
       </c>
       <c r="W16" t="n">
-        <v>835.950976327031</v>
+        <v>787.1617371000673</v>
       </c>
       <c r="X16" t="n">
-        <v>689.9468466749397</v>
+        <v>641.157607447976</v>
       </c>
       <c r="Y16" t="n">
-        <v>551.1396887773357</v>
+        <v>502.350449550372</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1879.495913560741</v>
+        <v>1879.495913560739</v>
       </c>
       <c r="C17" t="n">
-        <v>1592.518817866255</v>
+        <v>1592.518817866253</v>
       </c>
       <c r="D17" t="n">
-        <v>1316.23854050543</v>
+        <v>1316.238540505429</v>
       </c>
       <c r="E17" t="n">
-        <v>1012.435709153112</v>
+        <v>1012.435709153111</v>
       </c>
       <c r="F17" t="n">
-        <v>683.4352256094307</v>
+        <v>683.4352256094294</v>
       </c>
       <c r="G17" t="n">
-        <v>348.3181545388336</v>
+        <v>348.3181545388322</v>
       </c>
       <c r="H17" t="n">
-        <v>111.9298061068635</v>
+        <v>111.9298061068621</v>
       </c>
       <c r="I17" t="n">
         <v>73.65512816026961</v>
@@ -5516,7 +5516,7 @@
         <v>261.0713333224026</v>
       </c>
       <c r="K17" t="n">
-        <v>662.7044464688015</v>
+        <v>662.704446468802</v>
       </c>
       <c r="L17" t="n">
         <v>1213.24246569838</v>
@@ -5558,7 +5558,7 @@
         <v>2492.264243108822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2184.110332378936</v>
+        <v>2184.110332378937</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4316907989293</v>
+        <v>2013.165912290112</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9786615178023</v>
+        <v>1838.712883008985</v>
       </c>
       <c r="D18" t="n">
-        <v>664.044251856551</v>
+        <v>1689.778473347734</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8067968510956</v>
+        <v>1530.541018342278</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2722388779805</v>
+        <v>1384.006460369163</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8229703974799</v>
+        <v>1246.557191888662</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8309768007531</v>
+        <v>1145.565198291936</v>
       </c>
       <c r="I18" t="n">
-        <v>73.65512816026961</v>
+        <v>1099.389349651452</v>
       </c>
       <c r="J18" t="n">
-        <v>73.65512816026961</v>
+        <v>1099.389349651452</v>
       </c>
       <c r="K18" t="n">
-        <v>401.8378567203947</v>
+        <v>1165.751493569124</v>
       </c>
       <c r="L18" t="n">
-        <v>904.5244318205049</v>
+        <v>1668.438068669235</v>
       </c>
       <c r="M18" t="n">
-        <v>1260.547743741115</v>
+        <v>2307.028813257391</v>
       </c>
       <c r="N18" t="n">
-        <v>1457.198147939795</v>
+        <v>2503.679217456071</v>
       </c>
       <c r="O18" t="n">
-        <v>2004.798749891959</v>
+        <v>3051.279819408235</v>
       </c>
       <c r="P18" t="n">
-        <v>2427.293442603026</v>
+        <v>3453.027664094208</v>
       </c>
       <c r="Q18" t="n">
-        <v>2657.022186522297</v>
+        <v>3682.75640801348</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.421604437146</v>
+        <v>3661.155825928329</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.808617904056</v>
+        <v>3511.542839395239</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.787597056665</v>
+        <v>3314.521818547848</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.648291749428</v>
+        <v>3086.382513240611</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.496183517685</v>
+        <v>2851.230405008868</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258826789484</v>
+        <v>2596.993048280667</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.407326583951</v>
+        <v>2389.141548075134</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.647027818997</v>
+        <v>2181.38124931018</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>474.6218891377119</v>
+        <v>402.6874059660583</v>
       </c>
       <c r="C19" t="n">
-        <v>387.671127455731</v>
+        <v>365.6467848154427</v>
       </c>
       <c r="D19" t="n">
-        <v>319.5399092893214</v>
+        <v>297.515566649033</v>
       </c>
       <c r="E19" t="n">
-        <v>253.6122369528543</v>
+        <v>297.515566649033</v>
       </c>
       <c r="F19" t="n">
-        <v>188.70771070087</v>
+        <v>232.6110403970487</v>
       </c>
       <c r="G19" t="n">
-        <v>188.70771070087</v>
+        <v>145.9830179907334</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3798208704062</v>
+        <v>73.65512816026961</v>
       </c>
       <c r="I19" t="n">
         <v>73.65512816026961</v>
@@ -5674,13 +5674,13 @@
         <v>136.032915508681</v>
       </c>
       <c r="K19" t="n">
-        <v>316.6833697821183</v>
+        <v>316.6833697821184</v>
       </c>
       <c r="L19" t="n">
-        <v>580.9087597822605</v>
+        <v>580.9087597822606</v>
       </c>
       <c r="M19" t="n">
-        <v>865.5184877789727</v>
+        <v>865.5184877789729</v>
       </c>
       <c r="N19" t="n">
         <v>1150.70608541219</v>
@@ -5735,13 +5735,13 @@
         <v>1316.23854050543</v>
       </c>
       <c r="E20" t="n">
-        <v>1012.435709153111</v>
+        <v>1012.435709153112</v>
       </c>
       <c r="F20" t="n">
-        <v>683.4352256094299</v>
+        <v>683.4352256094305</v>
       </c>
       <c r="G20" t="n">
-        <v>348.3181545388327</v>
+        <v>348.3181545388322</v>
       </c>
       <c r="H20" t="n">
         <v>111.9298061068621</v>
@@ -5750,10 +5750,10 @@
         <v>73.65512816026958</v>
       </c>
       <c r="J20" t="n">
-        <v>261.0713333224025</v>
+        <v>261.0713333224026</v>
       </c>
       <c r="K20" t="n">
-        <v>662.7044464688014</v>
+        <v>662.7044464688015</v>
       </c>
       <c r="L20" t="n">
         <v>1213.24246569838</v>
@@ -5786,13 +5786,13 @@
         <v>3303.605280245808</v>
       </c>
       <c r="V20" t="n">
-        <v>3054.527814148164</v>
+        <v>3054.527814148163</v>
       </c>
       <c r="W20" t="n">
-        <v>2783.744580123976</v>
+        <v>2783.744580123975</v>
       </c>
       <c r="X20" t="n">
-        <v>2492.264243108822</v>
+        <v>2492.264243108821</v>
       </c>
       <c r="Y20" t="n">
         <v>2184.110332378936</v>
@@ -5832,22 +5832,22 @@
         <v>73.65512816026958</v>
       </c>
       <c r="K21" t="n">
-        <v>401.8378567203946</v>
+        <v>313.7460014237196</v>
       </c>
       <c r="L21" t="n">
-        <v>537.3924899700803</v>
+        <v>816.4325765238299</v>
       </c>
       <c r="M21" t="n">
-        <v>1175.983234558237</v>
+        <v>993.9753079994872</v>
       </c>
       <c r="N21" t="n">
-        <v>1847.182589357035</v>
+        <v>1665.174662798285</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.076890845497</v>
+        <v>2212.775264750449</v>
       </c>
       <c r="P21" t="n">
-        <v>2427.293442603026</v>
+        <v>2635.269957461516</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.022186522297</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.2499115440273</v>
+        <v>493.1186933776175</v>
       </c>
       <c r="C22" t="n">
-        <v>474.2991498620465</v>
+        <v>406.1679316956366</v>
       </c>
       <c r="D22" t="n">
-        <v>406.1679316956368</v>
+        <v>406.1679316956366</v>
       </c>
       <c r="E22" t="n">
-        <v>340.2402593591697</v>
+        <v>340.2402593591696</v>
       </c>
       <c r="F22" t="n">
-        <v>275.3357331071854</v>
+        <v>275.3357331071853</v>
       </c>
       <c r="G22" t="n">
-        <v>188.70771070087</v>
+        <v>188.7077107008699</v>
       </c>
       <c r="H22" t="n">
         <v>116.3798208704062</v>
@@ -5917,7 +5917,7 @@
         <v>580.9087597822605</v>
       </c>
       <c r="M22" t="n">
-        <v>865.5184877789727</v>
+        <v>865.5184877789728</v>
       </c>
       <c r="N22" t="n">
         <v>1150.70608541219</v>
@@ -5932,28 +5932,28 @@
         <v>1692.49073677749</v>
       </c>
       <c r="R22" t="n">
-        <v>1692.49073677749</v>
+        <v>1643.701497550526</v>
       </c>
       <c r="S22" t="n">
-        <v>1676.694143195039</v>
+        <v>1518.13163761707</v>
       </c>
       <c r="T22" t="n">
-        <v>1533.02217353166</v>
+        <v>1374.459667953691</v>
       </c>
       <c r="U22" t="n">
-        <v>1325.855058429032</v>
+        <v>1167.292552851063</v>
       </c>
       <c r="V22" t="n">
-        <v>1153.155991469071</v>
+        <v>1085.024773302661</v>
       </c>
       <c r="W22" t="n">
-        <v>945.7242426780363</v>
+        <v>877.5930245116265</v>
       </c>
       <c r="X22" t="n">
-        <v>799.720113025945</v>
+        <v>731.5888948595352</v>
       </c>
       <c r="Y22" t="n">
-        <v>660.912955128341</v>
+        <v>592.7817369619312</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1879.495913560739</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.518817866253</v>
+        <v>1592.518817866254</v>
       </c>
       <c r="D23" t="n">
         <v>1316.238540505429</v>
@@ -5987,10 +5987,10 @@
         <v>73.65512816026958</v>
       </c>
       <c r="J23" t="n">
-        <v>261.0713333224025</v>
+        <v>261.0713333224024</v>
       </c>
       <c r="K23" t="n">
-        <v>662.7044464688014</v>
+        <v>662.7044464688013</v>
       </c>
       <c r="L23" t="n">
         <v>1213.24246569838</v>
@@ -5999,28 +5999,28 @@
         <v>1842.428634884076</v>
       </c>
       <c r="N23" t="n">
-        <v>2467.163696535271</v>
+        <v>2467.163696535272</v>
       </c>
       <c r="O23" t="n">
         <v>3011.895662021189</v>
       </c>
       <c r="P23" t="n">
-        <v>3439.13740883645</v>
+        <v>3439.137408836451</v>
       </c>
       <c r="Q23" t="n">
-        <v>3682.756408013479</v>
+        <v>3682.75640801348</v>
       </c>
       <c r="R23" t="n">
         <v>3682.756408013479</v>
       </c>
       <c r="S23" t="n">
-        <v>3608.19157503087</v>
+        <v>3608.191575030871</v>
       </c>
       <c r="T23" t="n">
-        <v>3475.312739098966</v>
+        <v>3475.312739098967</v>
       </c>
       <c r="U23" t="n">
-        <v>3303.605280245807</v>
+        <v>3303.605280245808</v>
       </c>
       <c r="V23" t="n">
         <v>3054.527814148163</v>
@@ -6066,22 +6066,22 @@
         <v>73.65512816026958</v>
       </c>
       <c r="J24" t="n">
-        <v>101.6139853470857</v>
+        <v>191.5855563422923</v>
       </c>
       <c r="K24" t="n">
-        <v>167.976129264758</v>
+        <v>519.7682849024173</v>
       </c>
       <c r="L24" t="n">
-        <v>670.6627043648682</v>
+        <v>655.3229181521031</v>
       </c>
       <c r="M24" t="n">
-        <v>1309.253448953025</v>
+        <v>1293.91366274026</v>
       </c>
       <c r="N24" t="n">
-        <v>1980.452803751823</v>
+        <v>1965.113017539058</v>
       </c>
       <c r="O24" t="n">
-        <v>2528.053405703988</v>
+        <v>2212.775264750449</v>
       </c>
       <c r="P24" t="n">
         <v>2635.269957461516</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>474.6218891377119</v>
+        <v>496.3453852920429</v>
       </c>
       <c r="C25" t="n">
-        <v>387.671127455731</v>
+        <v>409.394623610062</v>
       </c>
       <c r="D25" t="n">
-        <v>319.5399092893214</v>
+        <v>341.2634054436523</v>
       </c>
       <c r="E25" t="n">
-        <v>253.6122369528543</v>
+        <v>275.3357331071853</v>
       </c>
       <c r="F25" t="n">
-        <v>188.70771070087</v>
+        <v>275.3357331071853</v>
       </c>
       <c r="G25" t="n">
-        <v>188.70771070087</v>
+        <v>188.7077107008699</v>
       </c>
       <c r="H25" t="n">
         <v>116.3798208704062</v>
@@ -6154,7 +6154,7 @@
         <v>580.9087597822605</v>
       </c>
       <c r="M25" t="n">
-        <v>865.5184877789727</v>
+        <v>865.5184877789728</v>
       </c>
       <c r="N25" t="n">
         <v>1150.70608541219</v>
@@ -6178,19 +6178,19 @@
         <v>1374.459667953691</v>
       </c>
       <c r="U25" t="n">
-        <v>1239.227036022716</v>
+        <v>1167.292552851063</v>
       </c>
       <c r="V25" t="n">
-        <v>1066.527969062756</v>
+        <v>994.5934858911019</v>
       </c>
       <c r="W25" t="n">
-        <v>859.096220271721</v>
+        <v>880.8197164260519</v>
       </c>
       <c r="X25" t="n">
-        <v>713.0920906196296</v>
+        <v>734.8155867739606</v>
       </c>
       <c r="Y25" t="n">
-        <v>574.2849327220256</v>
+        <v>596.0084288763566</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1872.103419386457</v>
+        <v>1885.964345963237</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.202261920186</v>
+        <v>1598.063188496966</v>
       </c>
       <c r="D26" t="n">
-        <v>1306.997922787576</v>
+        <v>1320.858849364356</v>
       </c>
       <c r="E26" t="n">
-        <v>1002.271029663473</v>
+        <v>1016.131956240253</v>
       </c>
       <c r="F26" t="n">
-        <v>672.3464843480057</v>
+        <v>686.2074109247856</v>
       </c>
       <c r="G26" t="n">
-        <v>336.3053515056232</v>
+        <v>350.1662780824031</v>
       </c>
       <c r="H26" t="n">
-        <v>98.99294130186772</v>
+        <v>112.8538678786475</v>
       </c>
       <c r="I26" t="n">
-        <v>73.65512816026958</v>
+        <v>73.65512816026961</v>
       </c>
       <c r="J26" t="n">
         <v>261.0713333224026</v>
@@ -6236,40 +6236,40 @@
         <v>1842.428634884076</v>
       </c>
       <c r="N26" t="n">
-        <v>2467.163696535271</v>
+        <v>2467.163696535272</v>
       </c>
       <c r="O26" t="n">
-        <v>3011.895662021189</v>
+        <v>3011.89566202119</v>
       </c>
       <c r="P26" t="n">
-        <v>3439.13740883645</v>
+        <v>3439.137408836451</v>
       </c>
       <c r="Q26" t="n">
-        <v>3682.756408013479</v>
+        <v>3682.75640801348</v>
       </c>
       <c r="R26" t="n">
-        <v>3682.756408013479</v>
+        <v>3682.75640801348</v>
       </c>
       <c r="S26" t="n">
-        <v>3607.267513259086</v>
+        <v>3607.267513259087</v>
       </c>
       <c r="T26" t="n">
-        <v>3473.464615555396</v>
+        <v>3473.464615555397</v>
       </c>
       <c r="U26" t="n">
-        <v>3300.833094930451</v>
+        <v>3300.833094930452</v>
       </c>
       <c r="V26" t="n">
-        <v>3050.831567061021</v>
+        <v>3050.831567061022</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.124271265048</v>
+        <v>2779.124271265049</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.719872478109</v>
+        <v>2500.580799054889</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.641899976438</v>
+        <v>2191.502826553218</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>358.2722388779805</v>
       </c>
       <c r="G27" t="n">
-        <v>220.8229703974798</v>
+        <v>220.8229703974799</v>
       </c>
       <c r="H27" t="n">
-        <v>119.830976800753</v>
+        <v>119.8309768007531</v>
       </c>
       <c r="I27" t="n">
-        <v>73.65512816026958</v>
+        <v>73.65512816026961</v>
       </c>
       <c r="J27" t="n">
-        <v>101.6139853470857</v>
+        <v>73.65512816026961</v>
       </c>
       <c r="K27" t="n">
-        <v>167.976129264758</v>
+        <v>140.0172720779419</v>
       </c>
       <c r="L27" t="n">
-        <v>670.6627043648682</v>
+        <v>642.7038471780521</v>
       </c>
       <c r="M27" t="n">
-        <v>1309.253448953025</v>
+        <v>1281.294591766209</v>
       </c>
       <c r="N27" t="n">
-        <v>1980.452803751823</v>
+        <v>1772.476288893333</v>
       </c>
       <c r="O27" t="n">
-        <v>2528.053405703988</v>
+        <v>2320.076890845497</v>
       </c>
       <c r="P27" t="n">
-        <v>2635.269957461516</v>
+        <v>2427.293442603026</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.022186522297</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410.7882405545634</v>
+        <v>2485.223626612079</v>
       </c>
       <c r="C28" t="n">
-        <v>410.7882405545634</v>
+        <v>2397.348803158313</v>
       </c>
       <c r="D28" t="n">
-        <v>410.7882405545634</v>
+        <v>2328.293523220118</v>
       </c>
       <c r="E28" t="n">
-        <v>343.936506446311</v>
+        <v>2261.441789111866</v>
       </c>
       <c r="F28" t="n">
-        <v>278.1079184225413</v>
+        <v>2231.970218716825</v>
       </c>
       <c r="G28" t="n">
-        <v>190.5558342444406</v>
+        <v>2144.418134538724</v>
       </c>
       <c r="H28" t="n">
-        <v>117.3038826421915</v>
+        <v>2071.166182936475</v>
       </c>
       <c r="I28" t="n">
-        <v>73.65512816026958</v>
+        <v>2071.166182936475</v>
       </c>
       <c r="J28" t="n">
-        <v>135.1272425661542</v>
+        <v>2132.638297342359</v>
       </c>
       <c r="K28" t="n">
-        <v>314.8720238970648</v>
+        <v>2312.38307867327</v>
       </c>
       <c r="L28" t="n">
-        <v>578.1917409546801</v>
+        <v>2575.702795730885</v>
       </c>
       <c r="M28" t="n">
-        <v>861.8957960088655</v>
+        <v>2859.406850785071</v>
       </c>
       <c r="N28" t="n">
-        <v>1146.177720699555</v>
+        <v>3143.68877547576</v>
       </c>
       <c r="O28" t="n">
-        <v>1398.806726168923</v>
+        <v>3396.317780945128</v>
       </c>
       <c r="P28" t="n">
-        <v>1602.920346472863</v>
+        <v>3600.431401249068</v>
       </c>
       <c r="Q28" t="n">
-        <v>1685.245353237276</v>
+        <v>3682.75640801348</v>
       </c>
       <c r="R28" t="n">
-        <v>1659.194826313314</v>
+        <v>3633.043107014731</v>
       </c>
       <c r="S28" t="n">
-        <v>1532.700904608072</v>
+        <v>3506.549185309489</v>
       </c>
       <c r="T28" t="n">
-        <v>1388.104873172908</v>
+        <v>3361.953153874325</v>
       </c>
       <c r="U28" t="n">
-        <v>1180.013696298495</v>
+        <v>3153.861976999911</v>
       </c>
       <c r="V28" t="n">
-        <v>1006.390567566748</v>
+        <v>2980.238848268165</v>
       </c>
       <c r="W28" t="n">
-        <v>798.0347570039285</v>
+        <v>2771.883037705345</v>
       </c>
       <c r="X28" t="n">
-        <v>651.1065655800518</v>
+        <v>2624.954846281468</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.3753459106624</v>
+        <v>2485.223626612079</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1592.518817866254</v>
       </c>
       <c r="D29" t="n">
-        <v>1316.23854050543</v>
+        <v>1316.238540505429</v>
       </c>
       <c r="E29" t="n">
         <v>1012.435709153111</v>
@@ -6455,16 +6455,16 @@
         <v>348.3181545388324</v>
       </c>
       <c r="H29" t="n">
-        <v>111.9298061068621</v>
+        <v>111.9298061068622</v>
       </c>
       <c r="I29" t="n">
-        <v>73.65512816026961</v>
+        <v>73.6551281602696</v>
       </c>
       <c r="J29" t="n">
-        <v>261.0713333224026</v>
+        <v>261.0713333224024</v>
       </c>
       <c r="K29" t="n">
-        <v>662.7044464688015</v>
+        <v>662.7044464688013</v>
       </c>
       <c r="L29" t="n">
         <v>1213.24246569838</v>
@@ -6488,10 +6488,10 @@
         <v>3682.75640801348</v>
       </c>
       <c r="S29" t="n">
-        <v>3608.191575030872</v>
+        <v>3608.191575030871</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.312739098968</v>
+        <v>3475.312739098967</v>
       </c>
       <c r="U29" t="n">
         <v>3303.605280245808</v>
@@ -6537,28 +6537,28 @@
         <v>119.8309768007531</v>
       </c>
       <c r="I30" t="n">
-        <v>73.65512816026961</v>
+        <v>73.6551281602696</v>
       </c>
       <c r="J30" t="n">
-        <v>101.6139853470857</v>
+        <v>73.6551281602696</v>
       </c>
       <c r="K30" t="n">
-        <v>167.976129264758</v>
+        <v>401.8378567203947</v>
       </c>
       <c r="L30" t="n">
-        <v>670.6627043648682</v>
+        <v>904.5244318205049</v>
       </c>
       <c r="M30" t="n">
-        <v>1309.253448953025</v>
+        <v>1543.115176408662</v>
       </c>
       <c r="N30" t="n">
-        <v>1980.452803751823</v>
+        <v>1847.121844023757</v>
       </c>
       <c r="O30" t="n">
-        <v>2528.053405703988</v>
+        <v>2004.798749891959</v>
       </c>
       <c r="P30" t="n">
-        <v>2635.269957461516</v>
+        <v>2427.293442603026</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.022186522297</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.5252188338911</v>
+        <v>430.4177129555761</v>
       </c>
       <c r="C31" t="n">
-        <v>431.5744571519102</v>
+        <v>343.4669512735952</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4432389855004</v>
+        <v>275.3357331071855</v>
       </c>
       <c r="E31" t="n">
-        <v>297.5155666490333</v>
+        <v>275.3357331071855</v>
       </c>
       <c r="F31" t="n">
-        <v>232.6110403970489</v>
+        <v>275.3357331071855</v>
       </c>
       <c r="G31" t="n">
-        <v>145.9830179907335</v>
+        <v>188.7077107008701</v>
       </c>
       <c r="H31" t="n">
-        <v>73.65512816026961</v>
+        <v>116.3798208704063</v>
       </c>
       <c r="I31" t="n">
-        <v>73.65512816026961</v>
+        <v>73.6551281602696</v>
       </c>
       <c r="J31" t="n">
         <v>136.0329155086809</v>
@@ -6646,25 +6646,25 @@
         <v>1643.701497550526</v>
       </c>
       <c r="S31" t="n">
-        <v>1518.131637617069</v>
+        <v>1545.861944606587</v>
       </c>
       <c r="T31" t="n">
-        <v>1374.45966795369</v>
+        <v>1402.189974943209</v>
       </c>
       <c r="U31" t="n">
-        <v>1167.292552851062</v>
+        <v>1195.022859840581</v>
       </c>
       <c r="V31" t="n">
-        <v>994.5934858911012</v>
+        <v>1022.32379288062</v>
       </c>
       <c r="W31" t="n">
-        <v>902.9995499679004</v>
+        <v>814.8920440895853</v>
       </c>
       <c r="X31" t="n">
-        <v>756.995420315809</v>
+        <v>668.8879144374939</v>
       </c>
       <c r="Y31" t="n">
-        <v>618.1882624182049</v>
+        <v>530.0807565398899</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1012.435709153111</v>
       </c>
       <c r="F32" t="n">
-        <v>683.4352256094293</v>
+        <v>683.4352256094295</v>
       </c>
       <c r="G32" t="n">
-        <v>348.3181545388326</v>
+        <v>348.3181545388325</v>
       </c>
       <c r="H32" t="n">
-        <v>111.9298061068623</v>
+        <v>111.9298061068622</v>
       </c>
       <c r="I32" t="n">
         <v>73.65512816026961</v>
@@ -6701,7 +6701,7 @@
         <v>261.0713333224026</v>
       </c>
       <c r="K32" t="n">
-        <v>662.7044464688015</v>
+        <v>662.704446468802</v>
       </c>
       <c r="L32" t="n">
         <v>1213.24246569838</v>
@@ -6713,7 +6713,7 @@
         <v>2467.163696535272</v>
       </c>
       <c r="O32" t="n">
-        <v>3011.895662021189</v>
+        <v>3011.89566202119</v>
       </c>
       <c r="P32" t="n">
         <v>3439.137408836451</v>
@@ -6728,10 +6728,10 @@
         <v>3608.191575030872</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.312739098967</v>
+        <v>3475.312739098968</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.605280245809</v>
+        <v>3303.605280245808</v>
       </c>
       <c r="V32" t="n">
         <v>3054.527814148164</v>
@@ -6780,19 +6780,19 @@
         <v>73.65512816026961</v>
       </c>
       <c r="K33" t="n">
-        <v>140.0172720779419</v>
+        <v>401.8378567203947</v>
       </c>
       <c r="L33" t="n">
-        <v>642.7038471780521</v>
+        <v>670.6627043648682</v>
       </c>
       <c r="M33" t="n">
-        <v>1281.294591766209</v>
+        <v>1309.253448953025</v>
       </c>
       <c r="N33" t="n">
-        <v>1952.493946565007</v>
+        <v>1980.452803751823</v>
       </c>
       <c r="O33" t="n">
-        <v>2500.094548517171</v>
+        <v>2528.053405703988</v>
       </c>
       <c r="P33" t="n">
         <v>2635.269957461516</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2392.953077202047</v>
+        <v>493.1186933776181</v>
       </c>
       <c r="C34" t="n">
-        <v>2306.002315520066</v>
+        <v>406.1679316956372</v>
       </c>
       <c r="D34" t="n">
-        <v>2237.871097353656</v>
+        <v>406.1679316956372</v>
       </c>
       <c r="E34" t="n">
-        <v>2171.943425017189</v>
+        <v>340.24025935917</v>
       </c>
       <c r="F34" t="n">
-        <v>2171.943425017189</v>
+        <v>275.3357331071856</v>
       </c>
       <c r="G34" t="n">
-        <v>2171.943425017189</v>
+        <v>188.7077107008702</v>
       </c>
       <c r="H34" t="n">
-        <v>2106.645492106397</v>
+        <v>116.3798208704063</v>
       </c>
       <c r="I34" t="n">
-        <v>2063.92079939626</v>
+        <v>73.65512816026961</v>
       </c>
       <c r="J34" t="n">
-        <v>2126.298586744672</v>
+        <v>136.0329155086809</v>
       </c>
       <c r="K34" t="n">
-        <v>2306.949041018109</v>
+        <v>316.6833697821182</v>
       </c>
       <c r="L34" t="n">
-        <v>2571.174431018251</v>
+        <v>580.9087597822603</v>
       </c>
       <c r="M34" t="n">
-        <v>2855.784159014963</v>
+        <v>865.5184877789725</v>
       </c>
       <c r="N34" t="n">
-        <v>3140.97175664818</v>
+        <v>1150.706085412189</v>
       </c>
       <c r="O34" t="n">
-        <v>3394.506435060074</v>
+        <v>1404.240763824083</v>
       </c>
       <c r="P34" t="n">
-        <v>3599.525728306541</v>
+        <v>1609.26005707055</v>
       </c>
       <c r="Q34" t="n">
-        <v>3682.75640801348</v>
+        <v>1692.490736777489</v>
       </c>
       <c r="R34" t="n">
-        <v>3633.967168786516</v>
+        <v>1643.701497550526</v>
       </c>
       <c r="S34" t="n">
-        <v>3508.397308853059</v>
+        <v>1518.131637617069</v>
       </c>
       <c r="T34" t="n">
-        <v>3364.725339189681</v>
+        <v>1464.890955365251</v>
       </c>
       <c r="U34" t="n">
-        <v>3157.558224087052</v>
+        <v>1257.723840262623</v>
       </c>
       <c r="V34" t="n">
-        <v>2984.859157127091</v>
+        <v>1085.024773302662</v>
       </c>
       <c r="W34" t="n">
-        <v>2777.427408336056</v>
+        <v>877.5930245116274</v>
       </c>
       <c r="X34" t="n">
-        <v>2631.423278683965</v>
+        <v>731.588894859536</v>
       </c>
       <c r="Y34" t="n">
-        <v>2492.616120786361</v>
+        <v>592.7817369619319</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>348.3181545388323</v>
       </c>
       <c r="H35" t="n">
-        <v>111.9298061068622</v>
+        <v>111.9298061068621</v>
       </c>
       <c r="I35" t="n">
         <v>73.65512816026961</v>
       </c>
       <c r="J35" t="n">
-        <v>261.0713333224031</v>
+        <v>261.0713333224025</v>
       </c>
       <c r="K35" t="n">
-        <v>662.7044464688021</v>
+        <v>662.7044464688015</v>
       </c>
       <c r="L35" t="n">
-        <v>1213.242465698381</v>
+        <v>1213.24246569838</v>
       </c>
       <c r="M35" t="n">
-        <v>1842.428634884077</v>
+        <v>1842.428634884076</v>
       </c>
       <c r="N35" t="n">
-        <v>2467.163696535273</v>
+        <v>2467.163696535272</v>
       </c>
       <c r="O35" t="n">
-        <v>3011.89566202119</v>
+        <v>3011.895662021189</v>
       </c>
       <c r="P35" t="n">
         <v>3439.137408836451</v>
@@ -6962,25 +6962,25 @@
         <v>3682.756408013481</v>
       </c>
       <c r="S35" t="n">
-        <v>3608.191575030871</v>
+        <v>3608.191575030872</v>
       </c>
       <c r="T35" t="n">
-        <v>3475.312739098967</v>
+        <v>3475.312739098968</v>
       </c>
       <c r="U35" t="n">
-        <v>3303.605280245808</v>
+        <v>3303.605280245809</v>
       </c>
       <c r="V35" t="n">
-        <v>3054.527814148163</v>
+        <v>3054.527814148164</v>
       </c>
       <c r="W35" t="n">
-        <v>2783.744580123975</v>
+        <v>2783.744580123976</v>
       </c>
       <c r="X35" t="n">
-        <v>2492.264243108821</v>
+        <v>2492.264243108822</v>
       </c>
       <c r="Y35" t="n">
-        <v>2184.110332378935</v>
+        <v>2184.110332378936</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4316907989293</v>
+        <v>2013.165912290112</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9786615178023</v>
+        <v>1838.712883008985</v>
       </c>
       <c r="D36" t="n">
-        <v>664.044251856551</v>
+        <v>1689.778473347734</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8067968510956</v>
+        <v>1530.541018342278</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2722388779805</v>
+        <v>1384.006460369164</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8229703974799</v>
+        <v>1246.557191888663</v>
       </c>
       <c r="H36" t="n">
-        <v>119.8309768007531</v>
+        <v>1145.565198291936</v>
       </c>
       <c r="I36" t="n">
-        <v>73.65512816026961</v>
+        <v>1099.389349651452</v>
       </c>
       <c r="J36" t="n">
-        <v>73.65512816026961</v>
+        <v>1217.319777833475</v>
       </c>
       <c r="K36" t="n">
-        <v>401.8378567203947</v>
+        <v>1545.5025063936</v>
       </c>
       <c r="L36" t="n">
-        <v>852.6098855903396</v>
+        <v>1681.057139643286</v>
       </c>
       <c r="M36" t="n">
-        <v>1491.200630178497</v>
+        <v>2319.647884231443</v>
       </c>
       <c r="N36" t="n">
-        <v>2162.399984977294</v>
+        <v>2990.847239030241</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.076890845497</v>
+        <v>3148.524144898443</v>
       </c>
       <c r="P36" t="n">
-        <v>2427.293442603026</v>
+        <v>3571.01883760951</v>
       </c>
       <c r="Q36" t="n">
-        <v>2657.022186522297</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="R36" t="n">
-        <v>2635.421604437146</v>
+        <v>3661.155825928329</v>
       </c>
       <c r="S36" t="n">
-        <v>2485.808617904056</v>
+        <v>3511.542839395239</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.787597056665</v>
+        <v>3314.521818547848</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.648291749428</v>
+        <v>3086.382513240611</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.496183517685</v>
+        <v>2851.230405008869</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258826789484</v>
+        <v>2596.993048280667</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.407326583951</v>
+        <v>2389.141548075134</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.647027818997</v>
+        <v>2181.38124931018</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>561.2499115440276</v>
+        <v>474.2991498620469</v>
       </c>
       <c r="C37" t="n">
-        <v>474.2991498620466</v>
+        <v>474.2991498620469</v>
       </c>
       <c r="D37" t="n">
-        <v>406.1679316956369</v>
+        <v>406.1679316956372</v>
       </c>
       <c r="E37" t="n">
-        <v>340.2402593591698</v>
+        <v>340.24025935917</v>
       </c>
       <c r="F37" t="n">
-        <v>275.3357331071854</v>
+        <v>275.3357331071856</v>
       </c>
       <c r="G37" t="n">
-        <v>188.7077107008701</v>
+        <v>188.7077107008702</v>
       </c>
       <c r="H37" t="n">
         <v>116.3798208704063</v>
@@ -7093,52 +7093,52 @@
         <v>73.65512816026961</v>
       </c>
       <c r="J37" t="n">
-        <v>136.032915508681</v>
+        <v>136.0329155086809</v>
       </c>
       <c r="K37" t="n">
-        <v>316.6833697821183</v>
+        <v>316.6833697821182</v>
       </c>
       <c r="L37" t="n">
-        <v>580.9087597822605</v>
+        <v>580.9087597822604</v>
       </c>
       <c r="M37" t="n">
         <v>865.5184877789727</v>
       </c>
       <c r="N37" t="n">
-        <v>1150.70608541219</v>
+        <v>1150.706085412189</v>
       </c>
       <c r="O37" t="n">
-        <v>1404.240763824084</v>
+        <v>1404.240763824083</v>
       </c>
       <c r="P37" t="n">
-        <v>1609.260057070551</v>
+        <v>1609.26005707055</v>
       </c>
       <c r="Q37" t="n">
         <v>1692.49073677749</v>
       </c>
       <c r="R37" t="n">
-        <v>1692.49073677749</v>
+        <v>1643.701497550526</v>
       </c>
       <c r="S37" t="n">
-        <v>1676.694143195039</v>
+        <v>1518.131637617069</v>
       </c>
       <c r="T37" t="n">
-        <v>1533.022173531661</v>
+        <v>1374.45966795369</v>
       </c>
       <c r="U37" t="n">
-        <v>1325.855058429032</v>
+        <v>1167.292552851062</v>
       </c>
       <c r="V37" t="n">
-        <v>1153.155991469072</v>
+        <v>994.5934858911012</v>
       </c>
       <c r="W37" t="n">
-        <v>945.7242426780368</v>
+        <v>787.1617371000665</v>
       </c>
       <c r="X37" t="n">
-        <v>799.7201130259455</v>
+        <v>712.7693513439649</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.9129551283413</v>
+        <v>573.9621934463607</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1592.518817866254</v>
       </c>
       <c r="D38" t="n">
-        <v>1316.238540505429</v>
+        <v>1316.23854050543</v>
       </c>
       <c r="E38" t="n">
         <v>1012.435709153111</v>
       </c>
       <c r="F38" t="n">
-        <v>683.4352256094296</v>
+        <v>683.4352256094297</v>
       </c>
       <c r="G38" t="n">
-        <v>348.3181545388323</v>
+        <v>348.3181545388325</v>
       </c>
       <c r="H38" t="n">
         <v>111.9298061068622</v>
@@ -7184,10 +7184,10 @@
         <v>1842.428634884076</v>
       </c>
       <c r="N38" t="n">
-        <v>2467.163696535273</v>
+        <v>2467.163696535272</v>
       </c>
       <c r="O38" t="n">
-        <v>3011.89566202119</v>
+        <v>3011.895662021189</v>
       </c>
       <c r="P38" t="n">
         <v>3439.137408836451</v>
@@ -7205,19 +7205,19 @@
         <v>3475.312739098968</v>
       </c>
       <c r="U38" t="n">
-        <v>3303.605280245808</v>
+        <v>3303.605280245809</v>
       </c>
       <c r="V38" t="n">
-        <v>3054.527814148163</v>
+        <v>3054.527814148164</v>
       </c>
       <c r="W38" t="n">
-        <v>2783.744580123975</v>
+        <v>2783.744580123976</v>
       </c>
       <c r="X38" t="n">
-        <v>2492.264243108821</v>
+        <v>2492.264243108822</v>
       </c>
       <c r="Y38" t="n">
-        <v>2184.110332378935</v>
+        <v>2184.110332378936</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>73.65512816026961</v>
       </c>
       <c r="J39" t="n">
-        <v>101.6139853470851</v>
+        <v>73.65512816026961</v>
       </c>
       <c r="K39" t="n">
-        <v>167.9761292647573</v>
+        <v>140.0172720779419</v>
       </c>
       <c r="L39" t="n">
-        <v>670.6627043648676</v>
+        <v>355.38456341133</v>
       </c>
       <c r="M39" t="n">
-        <v>1309.253448953025</v>
+        <v>993.9753079994872</v>
       </c>
       <c r="N39" t="n">
-        <v>1980.452803751823</v>
+        <v>1665.174662798285</v>
       </c>
       <c r="O39" t="n">
-        <v>2528.053405703987</v>
+        <v>2212.775264750449</v>
       </c>
       <c r="P39" t="n">
         <v>2635.269957461516</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>561.2499115440276</v>
+        <v>2392.953077202048</v>
       </c>
       <c r="C40" t="n">
-        <v>474.2991498620466</v>
+        <v>2306.002315520067</v>
       </c>
       <c r="D40" t="n">
-        <v>406.1679316956369</v>
+        <v>2237.871097353657</v>
       </c>
       <c r="E40" t="n">
-        <v>340.2402593591698</v>
+        <v>2171.94342501719</v>
       </c>
       <c r="F40" t="n">
-        <v>275.3357331071854</v>
+        <v>2107.038898765205</v>
       </c>
       <c r="G40" t="n">
-        <v>188.7077107008701</v>
+        <v>2107.038898765205</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3798208704063</v>
+        <v>2063.920799396261</v>
       </c>
       <c r="I40" t="n">
-        <v>73.65512816026961</v>
+        <v>2063.920799396261</v>
       </c>
       <c r="J40" t="n">
-        <v>136.032915508681</v>
+        <v>2126.298586744672</v>
       </c>
       <c r="K40" t="n">
-        <v>316.6833697821183</v>
+        <v>2306.94904101811</v>
       </c>
       <c r="L40" t="n">
-        <v>580.9087597822605</v>
+        <v>2571.174431018252</v>
       </c>
       <c r="M40" t="n">
-        <v>865.5184877789727</v>
+        <v>2855.784159014964</v>
       </c>
       <c r="N40" t="n">
-        <v>1150.70608541219</v>
+        <v>3140.97175664818</v>
       </c>
       <c r="O40" t="n">
-        <v>1404.240763824084</v>
+        <v>3394.506435060075</v>
       </c>
       <c r="P40" t="n">
-        <v>1609.260057070551</v>
+        <v>3599.525728306541</v>
       </c>
       <c r="Q40" t="n">
-        <v>1692.49073677749</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="R40" t="n">
-        <v>1643.701497550526</v>
+        <v>3633.967168786517</v>
       </c>
       <c r="S40" t="n">
-        <v>1518.131637617069</v>
+        <v>3508.39730885306</v>
       </c>
       <c r="T40" t="n">
-        <v>1374.459667953691</v>
+        <v>3364.725339189682</v>
       </c>
       <c r="U40" t="n">
-        <v>1167.292552851063</v>
+        <v>3157.558224087053</v>
       </c>
       <c r="V40" t="n">
-        <v>994.5934858911016</v>
+        <v>2984.859157127092</v>
       </c>
       <c r="W40" t="n">
-        <v>945.7242426780368</v>
+        <v>2777.427408336057</v>
       </c>
       <c r="X40" t="n">
-        <v>799.7201130259455</v>
+        <v>2631.423278683966</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.9129551283413</v>
+        <v>2492.616120786362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1879.495913560741</v>
+        <v>1879.49591356074</v>
       </c>
       <c r="C41" t="n">
-        <v>1592.518817866255</v>
+        <v>1592.518817866254</v>
       </c>
       <c r="D41" t="n">
-        <v>1316.238540505431</v>
+        <v>1316.23854050543</v>
       </c>
       <c r="E41" t="n">
-        <v>1012.435709153112</v>
+        <v>1012.435709153111</v>
       </c>
       <c r="F41" t="n">
-        <v>683.4352256094309</v>
+        <v>683.4352256094297</v>
       </c>
       <c r="G41" t="n">
-        <v>348.3181545388337</v>
+        <v>348.3181545388325</v>
       </c>
       <c r="H41" t="n">
         <v>111.9298061068622</v>
@@ -7409,22 +7409,22 @@
         <v>73.65512816026961</v>
       </c>
       <c r="J41" t="n">
-        <v>261.0713333224026</v>
+        <v>261.0713333224025</v>
       </c>
       <c r="K41" t="n">
-        <v>662.704446468802</v>
+        <v>662.7044464688015</v>
       </c>
       <c r="L41" t="n">
-        <v>1213.242465698381</v>
+        <v>1213.24246569838</v>
       </c>
       <c r="M41" t="n">
-        <v>1842.428634884077</v>
+        <v>1842.428634884076</v>
       </c>
       <c r="N41" t="n">
-        <v>2467.163696535273</v>
+        <v>2467.163696535272</v>
       </c>
       <c r="O41" t="n">
-        <v>3011.89566202119</v>
+        <v>3011.895662021189</v>
       </c>
       <c r="P41" t="n">
         <v>3439.137408836451</v>
@@ -7454,7 +7454,7 @@
         <v>2492.264243108822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2184.110332378937</v>
+        <v>2184.110332378936</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4316907989293</v>
+        <v>2013.165912290112</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9786615178023</v>
+        <v>1838.712883008985</v>
       </c>
       <c r="D42" t="n">
-        <v>664.044251856551</v>
+        <v>1689.778473347734</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8067968510956</v>
+        <v>1530.541018342278</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2722388779805</v>
+        <v>1384.006460369164</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8229703974799</v>
+        <v>1246.557191888663</v>
       </c>
       <c r="H42" t="n">
-        <v>119.8309768007531</v>
+        <v>1145.565198291936</v>
       </c>
       <c r="I42" t="n">
-        <v>73.65512816026961</v>
+        <v>1099.389349651452</v>
       </c>
       <c r="J42" t="n">
-        <v>73.65512816026961</v>
+        <v>1217.319777833475</v>
       </c>
       <c r="K42" t="n">
-        <v>140.0172720779419</v>
+        <v>1498.635649906837</v>
       </c>
       <c r="L42" t="n">
-        <v>355.38456341133</v>
+        <v>1634.190283156523</v>
       </c>
       <c r="M42" t="n">
-        <v>993.9753079994872</v>
+        <v>1811.73301463218</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.174662798285</v>
+        <v>2482.932369430978</v>
       </c>
       <c r="O42" t="n">
-        <v>2212.775264750449</v>
+        <v>3030.532971383142</v>
       </c>
       <c r="P42" t="n">
-        <v>2635.269957461516</v>
+        <v>3453.027664094209</v>
       </c>
       <c r="Q42" t="n">
-        <v>2657.022186522297</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="R42" t="n">
-        <v>2635.421604437146</v>
+        <v>3661.155825928329</v>
       </c>
       <c r="S42" t="n">
-        <v>2485.808617904056</v>
+        <v>3511.542839395239</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.787597056665</v>
+        <v>3314.521818547848</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.648291749428</v>
+        <v>3086.382513240611</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.496183517685</v>
+        <v>2851.230405008869</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258826789484</v>
+        <v>2596.993048280667</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.407326583951</v>
+        <v>2389.141548075134</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.647027818997</v>
+        <v>2181.38124931018</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>488.9220217135637</v>
+        <v>402.6874059660572</v>
       </c>
       <c r="C43" t="n">
-        <v>401.9712600315828</v>
+        <v>315.7366442840762</v>
       </c>
       <c r="D43" t="n">
-        <v>333.8400418651731</v>
+        <v>253.6122369528546</v>
       </c>
       <c r="E43" t="n">
-        <v>267.912369528706</v>
+        <v>253.6122369528546</v>
       </c>
       <c r="F43" t="n">
-        <v>203.0078432767216</v>
+        <v>188.7077107008702</v>
       </c>
       <c r="G43" t="n">
-        <v>116.3798208704063</v>
+        <v>188.7077107008702</v>
       </c>
       <c r="H43" t="n">
         <v>116.3798208704063</v>
@@ -7567,25 +7567,25 @@
         <v>73.65512816026961</v>
       </c>
       <c r="J43" t="n">
-        <v>136.032915508681</v>
+        <v>136.0329155086809</v>
       </c>
       <c r="K43" t="n">
-        <v>316.6833697821183</v>
+        <v>316.6833697821182</v>
       </c>
       <c r="L43" t="n">
-        <v>580.9087597822605</v>
+        <v>580.9087597822604</v>
       </c>
       <c r="M43" t="n">
         <v>865.5184877789727</v>
       </c>
       <c r="N43" t="n">
-        <v>1150.70608541219</v>
+        <v>1150.706085412189</v>
       </c>
       <c r="O43" t="n">
-        <v>1404.240763824084</v>
+        <v>1404.240763824083</v>
       </c>
       <c r="P43" t="n">
-        <v>1609.260057070551</v>
+        <v>1609.26005707055</v>
       </c>
       <c r="Q43" t="n">
         <v>1692.49073677749</v>
@@ -7594,25 +7594,25 @@
         <v>1643.701497550526</v>
       </c>
       <c r="S43" t="n">
-        <v>1604.366253364575</v>
+        <v>1518.131637617069</v>
       </c>
       <c r="T43" t="n">
-        <v>1460.694283701197</v>
+        <v>1374.45966795369</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.527168598569</v>
+        <v>1167.292552851062</v>
       </c>
       <c r="V43" t="n">
-        <v>1080.828101638608</v>
+        <v>994.5934858911012</v>
       </c>
       <c r="W43" t="n">
-        <v>873.396352847573</v>
+        <v>787.1617371000665</v>
       </c>
       <c r="X43" t="n">
-        <v>727.3922231954816</v>
+        <v>641.1576074479751</v>
       </c>
       <c r="Y43" t="n">
-        <v>588.5850652978775</v>
+        <v>502.350449550371</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2333.133763089703</v>
+        <v>1848.719935098782</v>
       </c>
       <c r="C44" t="n">
-        <v>1964.171246149291</v>
+        <v>1547.068753832768</v>
       </c>
       <c r="D44" t="n">
-        <v>1605.905547542541</v>
+        <v>1188.803055226018</v>
       </c>
       <c r="E44" t="n">
-        <v>1220.117294944296</v>
+        <v>803.0148026277734</v>
       </c>
       <c r="F44" t="n">
-        <v>809.1313901546889</v>
+        <v>392.0288978381658</v>
       </c>
       <c r="G44" t="n">
         <v>392.0288978381658</v>
@@ -7646,16 +7646,16 @@
         <v>73.65512816026961</v>
       </c>
       <c r="J44" t="n">
-        <v>261.0713333224025</v>
+        <v>261.0713333224026</v>
       </c>
       <c r="K44" t="n">
-        <v>662.7044464688015</v>
+        <v>662.704446468802</v>
       </c>
       <c r="L44" t="n">
-        <v>1213.24246569838</v>
+        <v>1213.242465698381</v>
       </c>
       <c r="M44" t="n">
-        <v>1842.428634884076</v>
+        <v>1842.428634884077</v>
       </c>
       <c r="N44" t="n">
         <v>2467.163696535273</v>
@@ -7673,25 +7673,25 @@
         <v>3682.756408013481</v>
       </c>
       <c r="S44" t="n">
-        <v>3526.206153784946</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="T44" t="n">
-        <v>3526.206153784946</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="U44" t="n">
-        <v>3526.206153784946</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="V44" t="n">
-        <v>3526.206153784946</v>
+        <v>3351.69352066991</v>
       </c>
       <c r="W44" t="n">
-        <v>3483.338693390716</v>
+        <v>2998.924865399796</v>
       </c>
       <c r="X44" t="n">
-        <v>3109.872935129637</v>
+        <v>2625.459107138716</v>
       </c>
       <c r="Y44" t="n">
-        <v>2719.733603153825</v>
+        <v>2235.319775162904</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>73.65512816026961</v>
       </c>
       <c r="J45" t="n">
-        <v>73.65512816026961</v>
+        <v>191.5855563422924</v>
       </c>
       <c r="K45" t="n">
-        <v>140.0172720779419</v>
+        <v>519.7682849024175</v>
       </c>
       <c r="L45" t="n">
-        <v>642.7038471780522</v>
+        <v>1022.454860002528</v>
       </c>
       <c r="M45" t="n">
-        <v>1281.29459176621</v>
+        <v>1661.045604590685</v>
       </c>
       <c r="N45" t="n">
-        <v>1952.493946565007</v>
+        <v>1857.696008789365</v>
       </c>
       <c r="O45" t="n">
-        <v>2500.094548517171</v>
+        <v>2015.372914657567</v>
       </c>
       <c r="P45" t="n">
-        <v>2635.269957461516</v>
+        <v>2427.293442603026</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.022186522297</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.7079505005123</v>
+        <v>2986.140503465484</v>
       </c>
       <c r="C46" t="n">
-        <v>223.7717675726053</v>
+        <v>2986.140503465484</v>
       </c>
       <c r="D46" t="n">
-        <v>73.65512816026961</v>
+        <v>2986.140503465484</v>
       </c>
       <c r="E46" t="n">
-        <v>73.65512816026961</v>
+        <v>2986.140503465484</v>
       </c>
       <c r="F46" t="n">
-        <v>73.65512816026961</v>
+        <v>2986.140503465484</v>
       </c>
       <c r="G46" t="n">
-        <v>73.65512816026961</v>
+        <v>2986.140503465484</v>
       </c>
       <c r="H46" t="n">
-        <v>73.65512816026961</v>
+        <v>2831.827192389094</v>
       </c>
       <c r="I46" t="n">
-        <v>73.65512816026961</v>
+        <v>2707.117078433031</v>
       </c>
       <c r="J46" t="n">
-        <v>73.65512816026961</v>
+        <v>2688.775966286596</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9516710705749</v>
+        <v>2789.072509196902</v>
       </c>
       <c r="L46" t="n">
-        <v>357.823149707585</v>
+        <v>2972.943987833912</v>
       </c>
       <c r="M46" t="n">
-        <v>562.0789663411653</v>
+        <v>3177.199804467492</v>
       </c>
       <c r="N46" t="n">
-        <v>766.91265261125</v>
+        <v>3382.033490737577</v>
       </c>
       <c r="O46" t="n">
-        <v>940.093419660012</v>
+        <v>3555.214257786339</v>
       </c>
       <c r="P46" t="n">
-        <v>1064.758801543347</v>
+        <v>3679.879639669673</v>
       </c>
       <c r="Q46" t="n">
-        <v>1067.635569887154</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="R46" t="n">
-        <v>1067.635569887154</v>
+        <v>3682.756408013481</v>
       </c>
       <c r="S46" t="n">
-        <v>1067.635569887154</v>
+        <v>3475.201126834098</v>
       </c>
       <c r="T46" t="n">
-        <v>1067.635569887154</v>
+        <v>3468.814542569387</v>
       </c>
       <c r="U46" t="n">
-        <v>1067.635569887154</v>
+        <v>3468.814542569387</v>
       </c>
       <c r="V46" t="n">
-        <v>812.9510816812673</v>
+        <v>3214.130054363501</v>
       </c>
       <c r="W46" t="n">
-        <v>812.9510816812673</v>
+        <v>3214.130054363501</v>
       </c>
       <c r="X46" t="n">
-        <v>795.1489944742821</v>
+        <v>2986.140503465484</v>
       </c>
       <c r="Y46" t="n">
-        <v>574.3564153307519</v>
+        <v>2986.140503465484</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.969390712103035</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>80.61884654919453</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>61.16176996255601</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720744</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.969390712103035</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>61.16176996255595</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>28.24126988567272</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>6.969390712103035</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2834145908616</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>297.5063564933782</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9480,25 @@
         <v>6.969390712103035</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>175.4835649957352</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>318.4014097174344</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>35.2106605977759</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,10 +9729,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>90.89428418503962</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>35.2106605977759</v>
+        <v>6.969390712103035</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>297.506356493378</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>35.21066059777587</v>
+        <v>6.969390712103035</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>108.4406701175914</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>6.969390712103035</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>134.6163781765534</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>28.24126988567272</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720744</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714834</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.969390712103007</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>318.4014097174335</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.89428418504028</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,13 +10832,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119849</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714834</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>35.21066059777517</v>
+        <v>6.969390712103007</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>80.6188465491943</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714834</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.969390712103007</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>217.1249779350399</v>
       </c>
       <c r="L42" t="n">
-        <v>80.6188465491943</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119849</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.969390712103007</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>28.24126988567269</v>
+        <v>307.7817941292222</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>381.8190205094131</v>
       </c>
       <c r="C11" t="n">
-        <v>364.35807061694</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>52.42634406821065</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.0155489181943</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.9612245876439</v>
+        <v>67.80277065518834</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>368.8162795244015</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>385.3231175019861</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.9171590278698</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>166.3319999445604</v>
+        <v>166.3319999445603</v>
       </c>
       <c r="D13" t="n">
-        <v>147.7006518641449</v>
+        <v>147.7006518641448</v>
       </c>
       <c r="E13" t="n">
-        <v>145.5191414925017</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.5062268688638</v>
+        <v>144.5062268688637</v>
       </c>
       <c r="G13" t="n">
         <v>166.0124880616515</v>
@@ -23434,10 +23434,10 @@
         <v>151.8553568115584</v>
       </c>
       <c r="I13" t="n">
-        <v>122.5481916624345</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.24287987090294</v>
+        <v>17.24287987090291</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>128.5520927140934</v>
       </c>
       <c r="S13" t="n">
-        <v>204.5649072135215</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>54.34623422810307</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>285.3461898310012</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>251.2228221697605</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>169.3266216236686</v>
       </c>
       <c r="X13" t="n">
-        <v>224.7948342349697</v>
+        <v>224.7948342349696</v>
       </c>
       <c r="Y13" t="n">
         <v>217.6698321980273</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>98.66641314847051</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>58.31046737371864</v>
       </c>
       <c r="H16" t="n">
-        <v>66.37808790446002</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>42.29744578303525</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.30134683469413</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.21513833993708</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>49.41103912605154</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>65.26839561310238</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.76174218225221</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>42.29744578303524</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>67.44990598474557</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>48.30134683469413</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>108.6755336874952</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>89.52697453744355</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>64.25548098946446</v>
       </c>
       <c r="G25" t="n">
-        <v>85.76174218225221</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>71.21513833993714</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>92.7213995327247</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>13.72231731101195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>13.72231731101192</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>99.58123430253804</v>
       </c>
       <c r="C28" t="n">
-        <v>86.99607521922854</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.36472713881307</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>35.9934474524414</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.21226693710276</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.42614633403988</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>65.26839561310244</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>64.25548098946452</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.29744578303531</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>27.45300391962337</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>114.6794347391555</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.44990598474567</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>64.25548098946462</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>85.76174218225235</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.959657350475609</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>89.52697453744543</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>86.08125406516115</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>48.30134683469415</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>108.6755336874959</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>70.89562645702989</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>85.76174218225229</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>28.91769255690415</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>42.29744578303533</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>156.9768805221901</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5.946742726836213</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>65.26839561310248</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>85.76174218225229</v>
       </c>
       <c r="H43" t="n">
-        <v>71.60461093215916</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>85.37226959003095</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>66.63822231765351</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9314673933579</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0.9148211540674822</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.9847516862492</v>
       </c>
       <c r="T44" t="n">
         <v>212.715614606052</v>
@@ -25922,10 +25922,10 @@
         <v>251.1559512980943</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>306.8021829271253</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,13 +26038,13 @@
         <v>166.927309215719</v>
       </c>
       <c r="H46" t="n">
-        <v>152.7701779656259</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123.463012816502</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.15770102497042</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>129.4669138681609</v>
       </c>
       <c r="S46" t="n">
-        <v>205.479728367589</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.4008170002115</v>
+        <v>217.0780985781481</v>
       </c>
       <c r="U46" t="n">
         <v>286.2610109850687</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>208.0855890541218</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698085.5956815723</v>
+        <v>698085.5956815726</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832743.757369874</v>
+        <v>832743.7573698739</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832743.7573698739</v>
+        <v>832743.757369874</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832743.757369874</v>
+        <v>832743.7573698739</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832743.7573698739</v>
+        <v>832743.757369874</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>696481.0506439155</v>
+        <v>696481.0506439154</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="E2" t="n">
-        <v>540423.1131005158</v>
+        <v>540423.1131005159</v>
       </c>
       <c r="F2" t="n">
         <v>653819.4597853996</v>
       </c>
       <c r="G2" t="n">
+        <v>653819.4597853995</v>
+      </c>
+      <c r="H2" t="n">
+        <v>653819.4597853996</v>
+      </c>
+      <c r="I2" t="n">
         <v>653819.4597853998</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>652526.8693101727</v>
+      </c>
+      <c r="K2" t="n">
+        <v>653819.4597854</v>
+      </c>
+      <c r="L2" t="n">
         <v>653819.4597853995</v>
       </c>
-      <c r="I2" t="n">
-        <v>653819.4597853997</v>
-      </c>
-      <c r="J2" t="n">
-        <v>652526.8693101726</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>653819.4597853994</v>
+      </c>
+      <c r="N2" t="n">
+        <v>653819.4597853996</v>
+      </c>
+      <c r="O2" t="n">
         <v>653819.4597853995</v>
-      </c>
-      <c r="L2" t="n">
-        <v>653819.4597853994</v>
-      </c>
-      <c r="M2" t="n">
-        <v>653819.4597853998</v>
-      </c>
-      <c r="N2" t="n">
-        <v>653819.4597853997</v>
-      </c>
-      <c r="O2" t="n">
-        <v>653819.4597853997</v>
       </c>
       <c r="P2" t="n">
         <v>539071.9172793304</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>677557.8287761712</v>
       </c>
       <c r="F3" t="n">
-        <v>64200.59670351941</v>
+        <v>64200.59670351942</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169377.6821301797</v>
+        <v>169377.6821301796</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337599.7632500552</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="C4" t="n">
-        <v>337599.7632500553</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>337599.7632500552</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>57841.94767853453</v>
+        <v>57936.53366362125</v>
       </c>
       <c r="F4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965767</v>
       </c>
       <c r="G4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965767</v>
       </c>
       <c r="H4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965767</v>
       </c>
       <c r="I4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965767</v>
       </c>
       <c r="J4" t="n">
-        <v>138013.906406246</v>
+        <v>138108.4923913326</v>
       </c>
       <c r="K4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965767</v>
       </c>
       <c r="L4" t="n">
-        <v>138938.3750114899</v>
+        <v>139032.9609965766</v>
       </c>
       <c r="M4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965766</v>
       </c>
       <c r="N4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965766</v>
       </c>
       <c r="O4" t="n">
-        <v>138938.37501149</v>
+        <v>139032.9609965766</v>
       </c>
       <c r="P4" t="n">
-        <v>56875.94888318786</v>
+        <v>56970.53486827452</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>68913.61055427307</v>
+        <v>68913.61055427308</v>
       </c>
       <c r="F5" t="n">
-        <v>75660.21050960831</v>
+        <v>75660.2105096083</v>
       </c>
       <c r="G5" t="n">
         <v>75660.21050960831</v>
@@ -26491,7 +26491,7 @@
         <v>75660.2105096083</v>
       </c>
       <c r="J5" t="n">
-        <v>75583.30241000699</v>
+        <v>75583.302410007</v>
       </c>
       <c r="K5" t="n">
         <v>75660.2105096083</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190182.9523460619</v>
+        <v>190084.6054624849</v>
       </c>
       <c r="C6" t="n">
-        <v>270952.3838776096</v>
+        <v>270854.0369940326</v>
       </c>
       <c r="D6" t="n">
-        <v>270952.3838776095</v>
+        <v>270854.0369940324</v>
       </c>
       <c r="E6" t="n">
-        <v>-263890.273908463</v>
+        <v>-263984.8598935496</v>
       </c>
       <c r="F6" t="n">
-        <v>375020.2775607817</v>
+        <v>374925.6915756952</v>
       </c>
       <c r="G6" t="n">
-        <v>439220.8742643015</v>
+        <v>439126.2882792145</v>
       </c>
       <c r="H6" t="n">
-        <v>439220.8742643012</v>
+        <v>439126.2882792146</v>
       </c>
       <c r="I6" t="n">
-        <v>439220.8742643014</v>
+        <v>439126.2882792149</v>
       </c>
       <c r="J6" t="n">
-        <v>375869.7178948135</v>
+        <v>375775.1319097269</v>
       </c>
       <c r="K6" t="n">
-        <v>374288.4206375278</v>
+        <v>374193.8346524416</v>
       </c>
       <c r="L6" t="n">
-        <v>439220.8742643013</v>
+        <v>439126.2882792146</v>
       </c>
       <c r="M6" t="n">
-        <v>269843.1921341218</v>
+        <v>269748.6061490348</v>
       </c>
       <c r="N6" t="n">
-        <v>439220.8742643014</v>
+        <v>439126.2882792146</v>
       </c>
       <c r="O6" t="n">
-        <v>439220.8742643014</v>
+        <v>439126.2882792145</v>
       </c>
       <c r="P6" t="n">
-        <v>413359.2659414708</v>
+        <v>413264.6799563841</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="F2" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G2" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H2" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I2" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J2" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="K2" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="L2" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="M2" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="N2" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="O2" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26799,7 +26799,7 @@
         <v>920.6891020033698</v>
       </c>
       <c r="F4" t="n">
-        <v>920.6891020033701</v>
+        <v>920.6891020033698</v>
       </c>
       <c r="G4" t="n">
         <v>920.6891020033701</v>
@@ -26811,10 +26811,10 @@
         <v>920.6891020033698</v>
       </c>
       <c r="J4" t="n">
-        <v>920.6891020033698</v>
+        <v>920.6891020033701</v>
       </c>
       <c r="K4" t="n">
-        <v>920.6891020033701</v>
+        <v>920.68910200337</v>
       </c>
       <c r="L4" t="n">
         <v>920.6891020033701</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9148211540674822</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="F2" t="n">
-        <v>80.25074587939926</v>
+        <v>80.25074587939928</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9148211540674822</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="K2" t="n">
-        <v>80.25074587939926</v>
+        <v>80.25074587939928</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346673</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>172.0795391841767</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.8840968279493</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27436,10 +27436,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>54.88028110380632</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>68.33809536946836</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27579,7 +27579,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>177.8869916337279</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27743,25 +27743,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>94.28297956287349</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>180.9561245870265</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>191.8237676856662</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,25 +27898,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>193.189729148863</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,19 +27941,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>14.10199513372733</v>
+        <v>83.19798034021875</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9148211540674951</v>
+        <v>0.9148211540675201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0.9148211540675106</v>
       </c>
       <c r="S14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="K16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="L16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="M16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="N16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="O16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="P16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="R16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="S16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0.9148211540675106</v>
       </c>
       <c r="S17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="K19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="L19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="M19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="N19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="O19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="P19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="R19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="S19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0.9148211540675106</v>
       </c>
       <c r="S20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="K22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="L22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="M22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="N22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="O22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="P22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="R22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="S22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0.9148211540675106</v>
       </c>
       <c r="S23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="C25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="D25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="E25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="F25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="G25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="H25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="I25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="J25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="K25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="L25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="M25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="N25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="O25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="P25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="R25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="S25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="T25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="U25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="V25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="W25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="X25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.16556703346677</v>
+        <v>81.16556703346679</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="C26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="D26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="E26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="F26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="G26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="H26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="I26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0.9148211540675106</v>
       </c>
       <c r="S26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="T26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="U26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="V26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="W26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="X26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="C28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="D28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="E28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="F28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="G28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="H28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="I28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="J28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="K28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="L28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="M28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="N28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="O28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="P28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="R28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="S28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="T28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="U28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="V28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="W28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="X28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.25074587939929</v>
+        <v>80.25074587939926</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="C29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="D29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="E29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="F29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="G29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="H29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="I29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0.9148211540675106</v>
       </c>
       <c r="S29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="T29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="U29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="V29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="W29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="X29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="C31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="D31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="E31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="F31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="G31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="H31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="I31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="J31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="K31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="L31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="M31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="N31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="O31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="P31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="R31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="S31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="T31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="U31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="V31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="W31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="X31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.16556703346671</v>
+        <v>81.16556703346673</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0.9148211540675106</v>
       </c>
       <c r="S32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="K34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="L34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="M34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="N34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="O34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="P34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="R34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="S34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.16556703346663</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0.9148211540674822</v>
       </c>
       <c r="S35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="K37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="L37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="M37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="N37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="O37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="P37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="R37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="S37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0.9148211540674822</v>
       </c>
       <c r="S38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="K40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="L40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="M40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="N40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="O40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="P40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="R40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="S40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0.9148211540674822</v>
       </c>
       <c r="S41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="C43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="D43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="E43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="F43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="G43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="H43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="I43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="J43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="K43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="L43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="M43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="N43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="O43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="P43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="R43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="S43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="T43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="U43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="V43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="W43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="X43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.16556703346674</v>
+        <v>81.16556703346669</v>
       </c>
     </row>
     <row r="44">
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35416,7 @@
         <v>556.0990093228064</v>
       </c>
       <c r="M11" t="n">
-        <v>635.5415850360569</v>
+        <v>635.5415850360565</v>
       </c>
       <c r="N11" t="n">
         <v>631.0455168193896</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.1216446283058</v>
       </c>
       <c r="K12" t="n">
-        <v>67.03246860370933</v>
+        <v>331.4977056162879</v>
       </c>
       <c r="L12" t="n">
-        <v>217.542718518574</v>
+        <v>507.7642172728387</v>
       </c>
       <c r="M12" t="n">
-        <v>645.0411561496537</v>
+        <v>179.3360923996539</v>
       </c>
       <c r="N12" t="n">
-        <v>677.9791462614119</v>
+        <v>259.7985418804143</v>
       </c>
       <c r="O12" t="n">
         <v>553.1319211638024</v>
@@ -35507,7 +35507,7 @@
         <v>426.7623158697642</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.97194854624348</v>
+        <v>232.0492362820926</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>102.2244604574062</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6435874540776</v>
+        <v>186.6435874540777</v>
       </c>
       <c r="M13" t="n">
         <v>207.2338278546536</v>
@@ -35580,13 +35580,13 @@
         <v>207.8175345581934</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8448888800897</v>
+        <v>175.8448888800898</v>
       </c>
       <c r="P13" t="n">
         <v>126.839449319052</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.820647763974037</v>
+        <v>3.820647763974065</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.3092981435692</v>
+        <v>189.3092981435685</v>
       </c>
       <c r="K14" t="n">
         <v>405.6900132791908</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.1216446283058</v>
       </c>
       <c r="K15" t="n">
-        <v>67.03246860370933</v>
+        <v>331.4977056162879</v>
       </c>
       <c r="L15" t="n">
         <v>507.7642172728387</v>
       </c>
       <c r="M15" t="n">
-        <v>645.0411561496537</v>
+        <v>240.4978623622098</v>
       </c>
       <c r="N15" t="n">
-        <v>677.9791462614119</v>
+        <v>198.6367719178583</v>
       </c>
       <c r="O15" t="n">
         <v>553.1319211638024</v>
       </c>
       <c r="P15" t="n">
-        <v>136.5408171154998</v>
+        <v>426.7623158697642</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.97194854624348</v>
+        <v>232.0492362820926</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.00786600849634</v>
+        <v>63.00786600849635</v>
       </c>
       <c r="K16" t="n">
         <v>182.4752063368055</v>
@@ -35823,7 +35823,7 @@
         <v>207.0901951984513</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.07139364337331</v>
+        <v>84.07139364337333</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>331.4977056162879</v>
+        <v>67.03246860370933</v>
       </c>
       <c r="L18" t="n">
         <v>507.7642172728387</v>
       </c>
       <c r="M18" t="n">
-        <v>359.6195069905155</v>
+        <v>645.0411561496537</v>
       </c>
       <c r="N18" t="n">
         <v>198.6367719178583</v>
@@ -35978,7 +35978,7 @@
         <v>553.1319211638024</v>
       </c>
       <c r="P18" t="n">
-        <v>426.7623158697642</v>
+        <v>405.8059037232052</v>
       </c>
       <c r="Q18" t="n">
         <v>232.0492362820926</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.00786600849634</v>
+        <v>63.00786600849635</v>
       </c>
       <c r="K19" t="n">
         <v>182.4752063368055</v>
@@ -36060,7 +36060,7 @@
         <v>207.0901951984513</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.07139364337331</v>
+        <v>84.07139364337333</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>331.4977056162879</v>
+        <v>242.5160335994445</v>
       </c>
       <c r="L21" t="n">
-        <v>136.9238719693795</v>
+        <v>507.7642172728387</v>
       </c>
       <c r="M21" t="n">
-        <v>645.0411561496537</v>
+        <v>179.3360923996539</v>
       </c>
       <c r="N21" t="n">
         <v>677.9791462614119</v>
       </c>
       <c r="O21" t="n">
-        <v>477.6710116045072</v>
+        <v>553.1319211638024</v>
       </c>
       <c r="P21" t="n">
-        <v>108.2995472298271</v>
+        <v>426.7623158697642</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.0492362820926</v>
+        <v>21.97194854624348</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.00786600849634</v>
+        <v>63.00786600849635</v>
       </c>
       <c r="K22" t="n">
         <v>182.4752063368055</v>
@@ -36297,7 +36297,7 @@
         <v>207.0901951984513</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.07139364337331</v>
+        <v>84.07139364337333</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28.24126988567286</v>
+        <v>119.1216446283058</v>
       </c>
       <c r="K24" t="n">
-        <v>67.03246860370933</v>
+        <v>331.4977056162879</v>
       </c>
       <c r="L24" t="n">
-        <v>507.7642172728387</v>
+        <v>136.9238719693795</v>
       </c>
       <c r="M24" t="n">
         <v>645.0411561496537</v>
@@ -36449,10 +36449,10 @@
         <v>677.9791462614119</v>
       </c>
       <c r="O24" t="n">
-        <v>553.1319211638024</v>
+        <v>250.1638860721125</v>
       </c>
       <c r="P24" t="n">
-        <v>108.2995472298271</v>
+        <v>426.7623158697642</v>
       </c>
       <c r="Q24" t="n">
         <v>21.97194854624348</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.00786600849634</v>
+        <v>63.00786600849635</v>
       </c>
       <c r="K25" t="n">
         <v>182.4752063368055</v>
@@ -36534,7 +36534,7 @@
         <v>207.0901951984513</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.07139364337331</v>
+        <v>84.07139364337333</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.24126988567286</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>67.03246860370933</v>
@@ -36683,7 +36683,7 @@
         <v>645.0411561496537</v>
       </c>
       <c r="N27" t="n">
-        <v>677.9791462614119</v>
+        <v>496.1431284112363</v>
       </c>
       <c r="O27" t="n">
         <v>553.1319211638024</v>
@@ -36692,7 +36692,7 @@
         <v>108.2995472298271</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.97194854624348</v>
+        <v>232.0492362820926</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.09304485442885</v>
+        <v>62.09304485442883</v>
       </c>
       <c r="K28" t="n">
         <v>181.5603851827379</v>
@@ -36768,10 +36768,10 @@
         <v>255.1808136054215</v>
       </c>
       <c r="P28" t="n">
-        <v>206.1753740443838</v>
+        <v>206.1753740443837</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.15657248930583</v>
+        <v>83.1565724893058</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>28.24126988567283</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>67.03246860370933</v>
+        <v>331.4977056162879</v>
       </c>
       <c r="L30" t="n">
         <v>507.7642172728387</v>
@@ -36920,16 +36920,16 @@
         <v>645.0411561496537</v>
       </c>
       <c r="N30" t="n">
-        <v>677.9791462614119</v>
+        <v>307.0774420354497</v>
       </c>
       <c r="O30" t="n">
-        <v>553.1319211638024</v>
+        <v>159.2696018870728</v>
       </c>
       <c r="P30" t="n">
-        <v>108.2995472298271</v>
+        <v>426.7623158697642</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.97194854624348</v>
+        <v>232.0492362820926</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.00786600849628</v>
+        <v>63.00786600849629</v>
       </c>
       <c r="K31" t="n">
         <v>182.4752063368054</v>
@@ -37008,7 +37008,7 @@
         <v>207.0901951984512</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.07139364337326</v>
+        <v>84.07139364337327</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>67.03246860370933</v>
+        <v>331.4977056162879</v>
       </c>
       <c r="L33" t="n">
-        <v>507.7642172728387</v>
+        <v>271.5402501459329</v>
       </c>
       <c r="M33" t="n">
         <v>645.0411561496537</v>
@@ -37163,7 +37163,7 @@
         <v>553.1319211638024</v>
       </c>
       <c r="P33" t="n">
-        <v>136.5408171154998</v>
+        <v>108.2995472298271</v>
       </c>
       <c r="Q33" t="n">
         <v>21.97194854624348</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.00786600849619</v>
+        <v>63.00786600849625</v>
       </c>
       <c r="K34" t="n">
         <v>182.4752063368053</v>
       </c>
       <c r="L34" t="n">
-        <v>266.8943333334768</v>
+        <v>266.8943333334769</v>
       </c>
       <c r="M34" t="n">
         <v>287.4845737340527</v>
       </c>
       <c r="N34" t="n">
-        <v>288.0682804375925</v>
+        <v>288.0682804375926</v>
       </c>
       <c r="O34" t="n">
         <v>256.0956347594889</v>
       </c>
       <c r="P34" t="n">
-        <v>207.0901951984511</v>
+        <v>207.0901951984512</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.07139364337317</v>
+        <v>84.07139364337323</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.3092981435692</v>
+        <v>189.3092981435686</v>
       </c>
       <c r="K35" t="n">
         <v>405.6900132791909</v>
@@ -37321,7 +37321,7 @@
         <v>550.2343085716338</v>
       </c>
       <c r="P35" t="n">
-        <v>431.5573200154155</v>
+        <v>431.5573200154163</v>
       </c>
       <c r="Q35" t="n">
         <v>246.0797971485144</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.1216446283058</v>
       </c>
       <c r="K36" t="n">
         <v>331.4977056162879</v>
       </c>
       <c r="L36" t="n">
-        <v>455.325281686813</v>
+        <v>136.9238719693795</v>
       </c>
       <c r="M36" t="n">
         <v>645.0411561496538</v>
@@ -37400,10 +37400,10 @@
         <v>159.2696018870729</v>
       </c>
       <c r="P36" t="n">
-        <v>108.2995472298271</v>
+        <v>426.7623158697643</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.0492362820926</v>
+        <v>112.8662327312838</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.00786600849632</v>
+        <v>63.00786600849626</v>
       </c>
       <c r="K37" t="n">
-        <v>182.4752063368055</v>
+        <v>182.4752063368054</v>
       </c>
       <c r="L37" t="n">
         <v>266.8943333334769</v>
@@ -37473,16 +37473,16 @@
         <v>287.4845737340528</v>
       </c>
       <c r="N37" t="n">
-        <v>288.0682804375927</v>
+        <v>288.0682804375926</v>
       </c>
       <c r="O37" t="n">
         <v>256.095634759489</v>
       </c>
       <c r="P37" t="n">
-        <v>207.0901951984513</v>
+        <v>207.0901951984512</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.0713936433733</v>
+        <v>84.07139364337324</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>635.541585036057</v>
       </c>
       <c r="N38" t="n">
-        <v>631.0455168193904</v>
+        <v>631.0455168193896</v>
       </c>
       <c r="O38" t="n">
         <v>550.2343085716338</v>
       </c>
       <c r="P38" t="n">
-        <v>431.5573200154155</v>
+        <v>431.5573200154163</v>
       </c>
       <c r="Q38" t="n">
         <v>246.0797971485144</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.24126988567217</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>67.03246860370936</v>
       </c>
       <c r="L39" t="n">
-        <v>507.7642172728387</v>
+        <v>217.5427185185738</v>
       </c>
       <c r="M39" t="n">
         <v>645.0411561496538</v>
@@ -37637,7 +37637,7 @@
         <v>553.1319211638024</v>
       </c>
       <c r="P39" t="n">
-        <v>108.2995472298271</v>
+        <v>426.7623158697643</v>
       </c>
       <c r="Q39" t="n">
         <v>21.97194854624351</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.00786600849632</v>
+        <v>63.00786600849626</v>
       </c>
       <c r="K40" t="n">
-        <v>182.4752063368055</v>
+        <v>182.4752063368054</v>
       </c>
       <c r="L40" t="n">
         <v>266.8943333334769</v>
@@ -37710,16 +37710,16 @@
         <v>287.4845737340528</v>
       </c>
       <c r="N40" t="n">
-        <v>288.0682804375927</v>
+        <v>288.0682804375926</v>
       </c>
       <c r="O40" t="n">
         <v>256.095634759489</v>
       </c>
       <c r="P40" t="n">
-        <v>207.0901951984513</v>
+        <v>207.0901951984512</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.0713936433733</v>
+        <v>84.07139364337324</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>550.2343085716338</v>
       </c>
       <c r="P41" t="n">
-        <v>431.5573200154155</v>
+        <v>431.5573200154163</v>
       </c>
       <c r="Q41" t="n">
         <v>246.0797971485144</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>119.1216446283058</v>
       </c>
       <c r="K42" t="n">
-        <v>67.03246860370936</v>
+        <v>284.1574465387493</v>
       </c>
       <c r="L42" t="n">
-        <v>217.5427185185738</v>
+        <v>136.9238719693795</v>
       </c>
       <c r="M42" t="n">
-        <v>645.0411561496538</v>
+        <v>179.3360923996539</v>
       </c>
       <c r="N42" t="n">
         <v>677.9791462614119</v>
@@ -37877,7 +37877,7 @@
         <v>426.7623158697643</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.97194854624351</v>
+        <v>232.0492362820926</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.00786600849632</v>
+        <v>63.00786600849626</v>
       </c>
       <c r="K43" t="n">
-        <v>182.4752063368055</v>
+        <v>182.4752063368054</v>
       </c>
       <c r="L43" t="n">
         <v>266.8943333334769</v>
@@ -37947,16 +37947,16 @@
         <v>287.4845737340528</v>
       </c>
       <c r="N43" t="n">
-        <v>288.0682804375927</v>
+        <v>288.0682804375926</v>
       </c>
       <c r="O43" t="n">
         <v>256.095634759489</v>
       </c>
       <c r="P43" t="n">
-        <v>207.0901951984513</v>
+        <v>207.0901951984512</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.0713936433733</v>
+        <v>84.07139364337324</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>635.541585036057</v>
       </c>
       <c r="N44" t="n">
-        <v>631.0455168193904</v>
+        <v>631.0455168193896</v>
       </c>
       <c r="O44" t="n">
         <v>550.2343085716338</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.1216446283058</v>
       </c>
       <c r="K45" t="n">
-        <v>67.03246860370936</v>
+        <v>331.4977056162879</v>
       </c>
       <c r="L45" t="n">
         <v>507.7642172728387</v>
@@ -38105,16 +38105,16 @@
         <v>645.0411561496538</v>
       </c>
       <c r="N45" t="n">
-        <v>677.9791462614119</v>
+        <v>198.6367719178584</v>
       </c>
       <c r="O45" t="n">
-        <v>553.1319211638024</v>
+        <v>159.2696018870729</v>
       </c>
       <c r="P45" t="n">
-        <v>136.5408171154998</v>
+        <v>416.0813413590494</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.97194854624351</v>
+        <v>232.0492362820926</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
